--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_4_1.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_4_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3555373.046205701</v>
+        <v>-3556085.348028745</v>
       </c>
     </row>
     <row r="7">
@@ -1260,19 +1260,19 @@
         <v>3.199249640013477</v>
       </c>
       <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2.817899082923868</v>
+      </c>
+      <c r="W9" t="n">
         <v>3.199249640013477</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.817899082923868</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1376,16 +1376,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>104.9780811915425</v>
       </c>
       <c r="G11" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>13.14426317250255</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1415,13 +1415,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>16.73328122929908</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>44.3176172467515</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1430,10 +1430,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>159.7481996726991</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>181.6344501416384</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>188.4979333192472</v>
@@ -1449,16 +1449,16 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>9.369887371298148</v>
+        <v>9.369887371298177</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>171.8275718397997</v>
+        <v>92.06673512693774</v>
       </c>
       <c r="F12" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>52.47517038390259</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1497,25 +1497,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>13.44252716693654</v>
+        <v>13.44252716693656</v>
       </c>
       <c r="T12" t="n">
-        <v>76.65244445575105</v>
+        <v>36.82265945242253</v>
       </c>
       <c r="U12" t="n">
-        <v>59.07980534382084</v>
+        <v>59.07980534382087</v>
       </c>
       <c r="V12" t="n">
-        <v>62.50065676233447</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="W12" t="n">
-        <v>88.55631942394382</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="X12" t="n">
-        <v>39.16465028640283</v>
+        <v>39.16465028640286</v>
       </c>
       <c r="Y12" t="n">
-        <v>45.23602198095784</v>
+        <v>45.23602198095787</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>25.28169700256634</v>
+        <v>25.28169700256637</v>
       </c>
       <c r="S13" t="n">
-        <v>57.28978021311279</v>
+        <v>57.28978021311282</v>
       </c>
       <c r="T13" t="n">
-        <v>45.61329429725524</v>
+        <v>45.61329429725527</v>
       </c>
       <c r="U13" t="n">
-        <v>110.5082928154978</v>
+        <v>110.5082928154979</v>
       </c>
       <c r="V13" t="n">
-        <v>66.96075103138213</v>
+        <v>66.96075103138216</v>
       </c>
       <c r="W13" t="n">
         <v>112.1624429362676</v>
       </c>
       <c r="X13" t="n">
-        <v>43.77119125517476</v>
+        <v>43.77119125517478</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.99300866110065</v>
+        <v>38.99300866110067</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>159.6238954891595</v>
+      </c>
+      <c r="E14" t="n">
         <v>188.4979333192472</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
       <c r="F14" t="n">
-        <v>96.91821996247623</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>168.8731344554828</v>
+        <v>41.23084492321549</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1652,28 +1652,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>16.73328122929906</v>
+        <v>16.73328122929908</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>49.36873040538043</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>44.31761724675151</v>
       </c>
       <c r="U14" t="n">
-        <v>72.00227733958198</v>
+        <v>72.00227733958201</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>159.7481996726991</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1686,10 +1686,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>9.369887371298148</v>
+        <v>9.369887371298177</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>52.47517038390259</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1734,25 +1734,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>13.44252716693654</v>
+        <v>172.2758376695118</v>
       </c>
       <c r="T15" t="n">
-        <v>188.4979333192472</v>
+        <v>36.82265945242253</v>
       </c>
       <c r="U15" t="n">
-        <v>188.4979333192472</v>
+        <v>59.07980534382087</v>
       </c>
       <c r="V15" t="n">
-        <v>151.8880508831399</v>
+        <v>62.5006567623345</v>
       </c>
       <c r="W15" t="n">
-        <v>88.55631942394382</v>
+        <v>88.55631942394385</v>
       </c>
       <c r="X15" t="n">
-        <v>39.16465028640283</v>
+        <v>39.16465028640286</v>
       </c>
       <c r="Y15" t="n">
-        <v>45.23602198095784</v>
+        <v>45.23602198095787</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.28169700256634</v>
+        <v>25.28169700256637</v>
       </c>
       <c r="S16" t="n">
-        <v>57.28978021311279</v>
+        <v>57.28978021311282</v>
       </c>
       <c r="T16" t="n">
-        <v>45.61329429725524</v>
+        <v>45.61329429725527</v>
       </c>
       <c r="U16" t="n">
-        <v>110.5082928154978</v>
+        <v>110.5082928154979</v>
       </c>
       <c r="V16" t="n">
-        <v>66.96075103138213</v>
+        <v>66.96075103138216</v>
       </c>
       <c r="W16" t="n">
         <v>112.1624429362676</v>
       </c>
       <c r="X16" t="n">
-        <v>43.77119125517476</v>
+        <v>43.77119125517478</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.99300866110065</v>
+        <v>38.99300866110067</v>
       </c>
     </row>
     <row r="17">
@@ -1907,7 +1907,7 @@
         <v>40.44879289878247</v>
       </c>
       <c r="X17" t="n">
-        <v>62.33504336772172</v>
+        <v>62.33504336772171</v>
       </c>
       <c r="Y17" t="n">
         <v>84.83789649146547</v>
@@ -1929,13 +1929,13 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>52.47517038390259</v>
+        <v>52.47517038390258</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.869455874161023</v>
+        <v>6.869455874161016</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -1974,16 +1974,16 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>188.4979333192472</v>
+        <v>4.284604613668982</v>
       </c>
       <c r="V18" t="n">
         <v>188.4979333192472</v>
       </c>
       <c r="W18" t="n">
-        <v>106.6843534095293</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2084,7 +2084,7 @@
         <v>52.7578264541944</v>
       </c>
       <c r="D20" t="n">
-        <v>40.32448871524286</v>
+        <v>40.32448871524338</v>
       </c>
       <c r="E20" t="n">
         <v>74.03124113465174</v>
@@ -2096,7 +2096,7 @@
         <v>121.3905020356641</v>
       </c>
       <c r="H20" t="n">
-        <v>49.57372768156614</v>
+        <v>49.57372768156616</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
         <v>187.5181515243659</v>
@@ -2166,13 +2166,13 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>47.31184619050102</v>
+        <v>42.38892363263505</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
         <v>187.5181515243659</v>
@@ -2403,13 +2403,13 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>47.31184619050191</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2457,10 +2457,10 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>12.71442943331621</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2643,10 +2643,10 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>122.5403054874648</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>107.7000085651264</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T27" t="n">
         <v>1.48617308148929</v>
@@ -2868,22 +2868,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>99.98026992873763</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>110.2585636486306</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2913,10 +2913,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.869455874161023</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2925,7 +2925,7 @@
         <v>1.48617308148929</v>
       </c>
       <c r="U30" t="n">
-        <v>23.74331897288762</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V30" t="n">
         <v>27.16417039140126</v>
@@ -3035,7 +3035,7 @@
         <v>123.4596992513621</v>
       </c>
       <c r="E32" t="n">
-        <v>157.166451670771</v>
+        <v>157.1664516707709</v>
       </c>
       <c r="F32" t="n">
         <v>188.8867892491483</v>
@@ -3044,10 +3044,10 @@
         <v>204.5257125717833</v>
       </c>
       <c r="H32" t="n">
-        <v>132.7089382176854</v>
+        <v>132.7089382176853</v>
       </c>
       <c r="I32" t="n">
-        <v>26.69730882461084</v>
+        <v>26.69730882461081</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>13.20453416758298</v>
+        <v>13.20453416758295</v>
       </c>
       <c r="T32" t="n">
-        <v>8.153421008954041</v>
+        <v>8.153421008954012</v>
       </c>
       <c r="U32" t="n">
-        <v>35.83808110178455</v>
+        <v>35.83808110178452</v>
       </c>
       <c r="V32" t="n">
         <v>106.5673232182868</v>
@@ -3105,19 +3105,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>145.4336199663876</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>104.9465291299232</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>6.869455874161023</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0.6584632146250794</v>
+        <v>0.658463214625051</v>
       </c>
       <c r="U33" t="n">
-        <v>22.91560910602341</v>
+        <v>22.91560910602338</v>
       </c>
       <c r="V33" t="n">
-        <v>26.33646052453705</v>
+        <v>26.33646052453702</v>
       </c>
       <c r="W33" t="n">
-        <v>52.39212318614639</v>
+        <v>52.39212318614636</v>
       </c>
       <c r="X33" t="n">
-        <v>3.000454048605405</v>
+        <v>3.000454048605377</v>
       </c>
       <c r="Y33" t="n">
-        <v>9.071825743160417</v>
+        <v>9.071825743160389</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>21.12558397531536</v>
+        <v>21.12558397531533</v>
       </c>
       <c r="T34" t="n">
-        <v>9.44909805945781</v>
+        <v>9.449098059457782</v>
       </c>
       <c r="U34" t="n">
-        <v>74.34409657770041</v>
+        <v>74.34409657770038</v>
       </c>
       <c r="V34" t="n">
-        <v>30.7965547935847</v>
+        <v>30.79655479358468</v>
       </c>
       <c r="W34" t="n">
-        <v>75.99824669847013</v>
+        <v>75.9982466984701</v>
       </c>
       <c r="X34" t="n">
-        <v>7.606995017377329</v>
+        <v>7.606995017377301</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.828812423303219</v>
+        <v>2.828812423303191</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>102.0280721215646</v>
+        <v>102.0280721215647</v>
       </c>
       <c r="C35" t="n">
-        <v>78.1463291249101</v>
+        <v>78.14632912491015</v>
       </c>
       <c r="D35" t="n">
-        <v>65.71299138595856</v>
+        <v>65.71299138595862</v>
       </c>
       <c r="E35" t="n">
-        <v>99.41974380536743</v>
+        <v>99.41974380536749</v>
       </c>
       <c r="F35" t="n">
         <v>131.1400813837448</v>
       </c>
       <c r="G35" t="n">
-        <v>146.7790047063798</v>
+        <v>146.7790047063799</v>
       </c>
       <c r="H35" t="n">
-        <v>74.96223035228184</v>
+        <v>74.96223035228189</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3323,13 +3323,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>48.82061535288329</v>
+        <v>48.82061535288335</v>
       </c>
       <c r="W35" t="n">
-        <v>65.83729556949817</v>
+        <v>65.83729556949822</v>
       </c>
       <c r="X35" t="n">
-        <v>87.72354603843741</v>
+        <v>87.72354603843746</v>
       </c>
       <c r="Y35" t="n">
         <v>110.2263991621812</v>
@@ -3342,13 +3342,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.806634693156034</v>
+        <v>6.869455874161023</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -3399,19 +3399,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>24.33978122672926</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>260.4608093700289</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>16.59738871229688</v>
+        <v>16.59738871229694</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>18.2515388330666</v>
+        <v>18.25153883306666</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>102.0280721215646</v>
+        <v>102.0280721215647</v>
       </c>
       <c r="C38" t="n">
-        <v>78.1463291249101</v>
+        <v>78.14632912491015</v>
       </c>
       <c r="D38" t="n">
-        <v>65.71299138595856</v>
+        <v>65.71299138595862</v>
       </c>
       <c r="E38" t="n">
-        <v>99.41974380536743</v>
+        <v>99.41974380536749</v>
       </c>
       <c r="F38" t="n">
         <v>131.1400813837448</v>
       </c>
       <c r="G38" t="n">
-        <v>146.7790047063798</v>
+        <v>146.7790047063799</v>
       </c>
       <c r="H38" t="n">
-        <v>74.96223035228184</v>
+        <v>74.96223035228189</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3560,13 +3560,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>48.82061535288329</v>
+        <v>48.82061535288335</v>
       </c>
       <c r="W38" t="n">
-        <v>65.83729556949817</v>
+        <v>65.83729556949822</v>
       </c>
       <c r="X38" t="n">
-        <v>87.72354603843741</v>
+        <v>87.72354603843746</v>
       </c>
       <c r="Y38" t="n">
         <v>110.2263991621812</v>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>47.57252109986948</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3642,10 +3642,10 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>260.4608093700289</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>4.424626169311178</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>16.59738871229688</v>
+        <v>16.59738871229694</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>18.2515388330666</v>
+        <v>18.25153883306666</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3743,13 +3743,13 @@
         <v>109.1957281657028</v>
       </c>
       <c r="D41" t="n">
-        <v>96.76239042675127</v>
+        <v>96.76239042675124</v>
       </c>
       <c r="E41" t="n">
         <v>130.4691428461601</v>
       </c>
       <c r="F41" t="n">
-        <v>162.1894804245375</v>
+        <v>162.1894804245374</v>
       </c>
       <c r="G41" t="n">
         <v>177.8284037471725</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.140772277173738</v>
+        <v>9.14077227717371</v>
       </c>
       <c r="V41" t="n">
-        <v>79.870014393676</v>
+        <v>79.87001439367597</v>
       </c>
       <c r="W41" t="n">
-        <v>96.88669461029087</v>
+        <v>96.88669461029085</v>
       </c>
       <c r="X41" t="n">
         <v>118.7729450792301</v>
       </c>
       <c r="Y41" t="n">
-        <v>141.2757982029739</v>
+        <v>141.2757982029738</v>
       </c>
     </row>
     <row r="42">
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>35.36064180112322</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3873,10 +3873,10 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>18.09600701974651</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>266.7045835770116</v>
@@ -3885,7 +3885,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>47.64678775308959</v>
+        <v>47.64678775308956</v>
       </c>
       <c r="V43" t="n">
-        <v>4.099245968973889</v>
+        <v>4.099245968973861</v>
       </c>
       <c r="W43" t="n">
-        <v>49.30093787385931</v>
+        <v>49.30093787385928</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3980,13 +3980,13 @@
         <v>109.1957281657028</v>
       </c>
       <c r="D44" t="n">
-        <v>96.76239042675127</v>
+        <v>96.76239042675124</v>
       </c>
       <c r="E44" t="n">
         <v>130.4691428461601</v>
       </c>
       <c r="F44" t="n">
-        <v>162.1894804245375</v>
+        <v>162.1894804245374</v>
       </c>
       <c r="G44" t="n">
         <v>177.8284037471725</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>9.140772277173735</v>
+        <v>9.140772277173706</v>
       </c>
       <c r="V44" t="n">
-        <v>79.870014393676</v>
+        <v>79.87001439367597</v>
       </c>
       <c r="W44" t="n">
-        <v>96.88669461029087</v>
+        <v>96.88669461029085</v>
       </c>
       <c r="X44" t="n">
         <v>118.7729450792301</v>
       </c>
       <c r="Y44" t="n">
-        <v>141.2757982029739</v>
+        <v>141.2757982029738</v>
       </c>
     </row>
     <row r="45">
@@ -4053,16 +4053,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>142.3555071027542</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4098,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>6.869455874161023</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -4110,19 +4110,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>35.36064180112321</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>25.69481436153558</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>47.64678775308959</v>
+        <v>47.64678775308956</v>
       </c>
       <c r="V46" t="n">
-        <v>4.099245968973889</v>
+        <v>4.099245968973861</v>
       </c>
       <c r="W46" t="n">
-        <v>49.30093787385931</v>
+        <v>49.30093787385928</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4808,34 +4808,34 @@
         <v>0.2559399712010781</v>
       </c>
       <c r="L8" t="n">
-        <v>0.384556269860207</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="M8" t="n">
-        <v>3.551813413473549</v>
+        <v>3.42319711481442</v>
       </c>
       <c r="N8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="O8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="P8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="Q8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="R8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="S8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="T8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="U8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="V8" t="n">
         <v>6.719070557086891</v>
@@ -4884,19 +4884,19 @@
         <v>0.2559399712010781</v>
       </c>
       <c r="K9" t="n">
+        <v>0.2559399712010781</v>
+      </c>
+      <c r="L9" t="n">
         <v>3.42319711481442</v>
       </c>
-      <c r="L9" t="n">
-        <v>6.590454258427762</v>
-      </c>
       <c r="M9" t="n">
-        <v>9.757711402041103</v>
+        <v>6.462484272827225</v>
       </c>
       <c r="N9" t="n">
-        <v>9.757711402041103</v>
+        <v>6.462484272827225</v>
       </c>
       <c r="O9" t="n">
-        <v>9.757711402041103</v>
+        <v>9.629741416440567</v>
       </c>
       <c r="P9" t="n">
         <v>12.79699856005391</v>
@@ -4908,16 +4908,16 @@
         <v>6.333867974168094</v>
       </c>
       <c r="S9" t="n">
-        <v>3.102302681225188</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="T9" t="n">
-        <v>0.2559399712010781</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="U9" t="n">
-        <v>0.2559399712010781</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="V9" t="n">
-        <v>0.2559399712010781</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="W9" t="n">
         <v>0.2559399712010781</v>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>218.7588210208428</v>
+        <v>311.5202533633072</v>
       </c>
       <c r="C11" t="n">
-        <v>218.7588210208428</v>
+        <v>311.5202533633072</v>
       </c>
       <c r="D11" t="n">
-        <v>218.7588210208428</v>
+        <v>311.5202533633072</v>
       </c>
       <c r="E11" t="n">
-        <v>218.7588210208428</v>
+        <v>121.1183005155827</v>
       </c>
       <c r="F11" t="n">
-        <v>218.7588210208428</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="G11" t="n">
-        <v>28.35686817311811</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="H11" t="n">
         <v>15.07983466553978</v>
@@ -5045,46 +5045,46 @@
         <v>115.4328134021288</v>
       </c>
       <c r="L11" t="n">
-        <v>302.0457673881835</v>
+        <v>162.1536558828889</v>
       </c>
       <c r="M11" t="n">
-        <v>488.6587213742383</v>
+        <v>243.0729954267932</v>
       </c>
       <c r="N11" t="n">
-        <v>632.2189367398317</v>
+        <v>318.4008885624856</v>
       </c>
       <c r="O11" t="n">
-        <v>666.4395714324995</v>
+        <v>505.0138425485404</v>
       </c>
       <c r="P11" t="n">
-        <v>666.4395714324995</v>
+        <v>666.4395714324996</v>
       </c>
       <c r="Q11" t="n">
-        <v>753.9917332769888</v>
+        <v>753.991733276989</v>
       </c>
       <c r="R11" t="n">
-        <v>753.9917332769888</v>
+        <v>737.0894290049696</v>
       </c>
       <c r="S11" t="n">
-        <v>753.9917332769888</v>
+        <v>737.0894290049696</v>
       </c>
       <c r="T11" t="n">
-        <v>753.9917332769888</v>
+        <v>692.324159058756</v>
       </c>
       <c r="U11" t="n">
-        <v>753.9917332769888</v>
+        <v>692.324159058756</v>
       </c>
       <c r="V11" t="n">
-        <v>753.9917332769888</v>
+        <v>692.324159058756</v>
       </c>
       <c r="W11" t="n">
-        <v>592.6299154257777</v>
+        <v>692.324159058756</v>
       </c>
       <c r="X11" t="n">
-        <v>409.1607738685672</v>
+        <v>692.324159058756</v>
       </c>
       <c r="Y11" t="n">
-        <v>218.7588210208428</v>
+        <v>501.9222062110315</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>358.5352875251622</v>
+        <v>170.5462921222453</v>
       </c>
       <c r="C12" t="n">
-        <v>349.0707548268812</v>
+        <v>161.0817594239644</v>
       </c>
       <c r="D12" t="n">
-        <v>349.0707548268812</v>
+        <v>161.0817594239644</v>
       </c>
       <c r="E12" t="n">
-        <v>175.5075509482957</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="F12" t="n">
-        <v>15.07983466553978</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="G12" t="n">
-        <v>15.07983466553978</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="H12" t="n">
-        <v>15.07983466553978</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="I12" t="n">
-        <v>15.07983466553978</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="J12" t="n">
         <v>15.07983466553978</v>
       </c>
       <c r="K12" t="n">
-        <v>53.04316068142016</v>
+        <v>53.04316068142023</v>
       </c>
       <c r="L12" t="n">
-        <v>170.3760798097942</v>
+        <v>170.3760798097944</v>
       </c>
       <c r="M12" t="n">
-        <v>352.0527264137997</v>
+        <v>352.0527264137999</v>
       </c>
       <c r="N12" t="n">
-        <v>538.6656803998545</v>
+        <v>538.6656803998546</v>
       </c>
       <c r="O12" t="n">
-        <v>670.366620018889</v>
+        <v>670.3666200188891</v>
       </c>
       <c r="P12" t="n">
-        <v>753.9917332769888</v>
+        <v>753.991733276989</v>
       </c>
       <c r="Q12" t="n">
-        <v>747.0528889596545</v>
+        <v>747.0528889596546</v>
       </c>
       <c r="R12" t="n">
-        <v>747.0528889596545</v>
+        <v>747.0528889596546</v>
       </c>
       <c r="S12" t="n">
-        <v>733.4745786900216</v>
+        <v>733.4745786900218</v>
       </c>
       <c r="T12" t="n">
-        <v>656.0478671185559</v>
+        <v>696.2799731825243</v>
       </c>
       <c r="U12" t="n">
-        <v>596.3712960641915</v>
+        <v>636.6034021281597</v>
       </c>
       <c r="V12" t="n">
-        <v>533.2393195365809</v>
+        <v>446.2014492804352</v>
       </c>
       <c r="W12" t="n">
-        <v>443.7884918356275</v>
+        <v>255.7994964327107</v>
       </c>
       <c r="X12" t="n">
-        <v>404.2282390210792</v>
+        <v>216.2392436181624</v>
       </c>
       <c r="Y12" t="n">
-        <v>358.5352875251622</v>
+        <v>170.5462921222453</v>
       </c>
     </row>
     <row r="13">
@@ -5173,73 +5173,73 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.60586471875846</v>
+        <v>15.60586471875843</v>
       </c>
       <c r="C13" t="n">
-        <v>27.18003706804293</v>
+        <v>15.60586471875843</v>
       </c>
       <c r="D13" t="n">
-        <v>27.18003706804293</v>
+        <v>15.60586471875843</v>
       </c>
       <c r="E13" t="n">
-        <v>27.18003706804293</v>
+        <v>15.60586471875843</v>
       </c>
       <c r="F13" t="n">
-        <v>27.18003706804293</v>
+        <v>15.60586471875843</v>
       </c>
       <c r="G13" t="n">
-        <v>27.18003706804293</v>
+        <v>15.60586471875843</v>
       </c>
       <c r="H13" t="n">
-        <v>27.18003706804293</v>
+        <v>15.60586471875843</v>
       </c>
       <c r="I13" t="n">
-        <v>27.18003706804293</v>
+        <v>15.60586471875843</v>
       </c>
       <c r="J13" t="n">
-        <v>27.18003706804293</v>
+        <v>15.60586471875843</v>
       </c>
       <c r="K13" t="n">
-        <v>27.18003706804293</v>
+        <v>125.6129658924974</v>
       </c>
       <c r="L13" t="n">
-        <v>27.18003706804293</v>
+        <v>125.6129658924974</v>
       </c>
       <c r="M13" t="n">
-        <v>178.5821218346755</v>
+        <v>125.6129658924974</v>
       </c>
       <c r="N13" t="n">
-        <v>212.5590407811548</v>
+        <v>285.6247916084459</v>
       </c>
       <c r="O13" t="n">
-        <v>351.8217271348929</v>
+        <v>424.887477962184</v>
       </c>
       <c r="P13" t="n">
-        <v>470.2946957351836</v>
+        <v>520.7166611426686</v>
       </c>
       <c r="Q13" t="n">
-        <v>520.7166611426684</v>
+        <v>520.7166611426686</v>
       </c>
       <c r="R13" t="n">
-        <v>495.1795934633085</v>
+        <v>495.1795934633087</v>
       </c>
       <c r="S13" t="n">
-        <v>437.3111286015784</v>
+        <v>437.3111286015786</v>
       </c>
       <c r="T13" t="n">
-        <v>391.2370939578862</v>
+        <v>391.2370939578864</v>
       </c>
       <c r="U13" t="n">
-        <v>279.6125557604136</v>
+        <v>279.6125557604138</v>
       </c>
       <c r="V13" t="n">
-        <v>211.9754335064923</v>
+        <v>211.9754335064924</v>
       </c>
       <c r="W13" t="n">
-        <v>98.68003660117151</v>
+        <v>98.68003660117157</v>
       </c>
       <c r="X13" t="n">
-        <v>54.46671210099498</v>
+        <v>54.466712100995</v>
       </c>
       <c r="Y13" t="n">
         <v>15.07983466553978</v>
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>283.5559502392358</v>
+        <v>408.3653636873805</v>
       </c>
       <c r="C14" t="n">
-        <v>283.5559502392358</v>
+        <v>408.3653636873805</v>
       </c>
       <c r="D14" t="n">
-        <v>283.5559502392358</v>
+        <v>247.1291056175223</v>
       </c>
       <c r="E14" t="n">
-        <v>283.5559502392358</v>
+        <v>56.72715276979785</v>
       </c>
       <c r="F14" t="n">
-        <v>185.6587583579467</v>
+        <v>56.72715276979785</v>
       </c>
       <c r="G14" t="n">
-        <v>185.6587583579467</v>
+        <v>56.72715276979785</v>
       </c>
       <c r="H14" t="n">
         <v>15.07983466553978</v>
@@ -5279,49 +5279,49 @@
         <v>115.4328134021288</v>
       </c>
       <c r="K14" t="n">
-        <v>178.1311296807749</v>
+        <v>285.1396746888279</v>
       </c>
       <c r="L14" t="n">
-        <v>364.7440836668297</v>
+        <v>331.860517169588</v>
       </c>
       <c r="M14" t="n">
-        <v>445.605982753777</v>
+        <v>518.4734711556428</v>
       </c>
       <c r="N14" t="n">
-        <v>632.2189367398317</v>
+        <v>705.0864251416975</v>
       </c>
       <c r="O14" t="n">
-        <v>666.4395714324995</v>
+        <v>753.991733276989</v>
       </c>
       <c r="P14" t="n">
-        <v>666.4395714324995</v>
+        <v>753.991733276989</v>
       </c>
       <c r="Q14" t="n">
-        <v>753.9917332769888</v>
+        <v>753.991733276989</v>
       </c>
       <c r="R14" t="n">
-        <v>737.0894290049696</v>
+        <v>737.0894290049697</v>
       </c>
       <c r="S14" t="n">
-        <v>737.0894290049696</v>
+        <v>687.2220245550903</v>
       </c>
       <c r="T14" t="n">
-        <v>737.0894290049696</v>
+        <v>642.4567546088767</v>
       </c>
       <c r="U14" t="n">
-        <v>664.3598559346848</v>
+        <v>569.7271815385917</v>
       </c>
       <c r="V14" t="n">
-        <v>664.3598559346848</v>
+        <v>569.7271815385917</v>
       </c>
       <c r="W14" t="n">
-        <v>664.3598559346848</v>
+        <v>408.3653636873805</v>
       </c>
       <c r="X14" t="n">
-        <v>664.3598559346848</v>
+        <v>408.3653636873805</v>
       </c>
       <c r="Y14" t="n">
-        <v>473.9579030869603</v>
+        <v>408.3653636873805</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>24.54436736382074</v>
+        <v>238.3297062127916</v>
       </c>
       <c r="C15" t="n">
-        <v>15.07983466553978</v>
+        <v>228.8651735145106</v>
       </c>
       <c r="D15" t="n">
-        <v>15.07983466553978</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="E15" t="n">
-        <v>15.07983466553978</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="F15" t="n">
-        <v>15.07983466553978</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="G15" t="n">
-        <v>15.07983466553978</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="H15" t="n">
-        <v>15.07983466553978</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="I15" t="n">
-        <v>15.07983466553978</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="J15" t="n">
         <v>15.07983466553978</v>
@@ -5382,25 +5382,25 @@
         <v>747.0528889596545</v>
       </c>
       <c r="S15" t="n">
-        <v>733.4745786900216</v>
+        <v>573.036891313683</v>
       </c>
       <c r="T15" t="n">
-        <v>543.0726258422972</v>
+        <v>535.8422858061855</v>
       </c>
       <c r="U15" t="n">
-        <v>352.6706729945727</v>
+        <v>476.165714751821</v>
       </c>
       <c r="V15" t="n">
-        <v>199.2483993752394</v>
+        <v>413.0337382242104</v>
       </c>
       <c r="W15" t="n">
-        <v>109.7975716742861</v>
+        <v>323.582910523257</v>
       </c>
       <c r="X15" t="n">
-        <v>70.23731885973775</v>
+        <v>284.0226577087087</v>
       </c>
       <c r="Y15" t="n">
-        <v>24.54436736382074</v>
+        <v>238.3297062127916</v>
       </c>
     </row>
     <row r="16">
@@ -5410,73 +5410,73 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.60586471875846</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="C16" t="n">
-        <v>15.60586471875846</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="D16" t="n">
-        <v>15.60586471875846</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="E16" t="n">
-        <v>15.60586471875846</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="F16" t="n">
-        <v>15.60586471875846</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="G16" t="n">
-        <v>15.60586471875846</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="H16" t="n">
-        <v>15.60586471875846</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I16" t="n">
-        <v>15.60586471875846</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="J16" t="n">
-        <v>15.60586471875846</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="K16" t="n">
-        <v>125.6129658924975</v>
+        <v>125.0869358392788</v>
       </c>
       <c r="L16" t="n">
-        <v>125.6129658924975</v>
+        <v>269.6234192651187</v>
       </c>
       <c r="M16" t="n">
-        <v>125.6129658924975</v>
+        <v>421.0255040317513</v>
       </c>
       <c r="N16" t="n">
-        <v>262.9810061886396</v>
+        <v>421.0255040317513</v>
       </c>
       <c r="O16" t="n">
-        <v>402.2436925423777</v>
+        <v>421.0255040317513</v>
       </c>
       <c r="P16" t="n">
-        <v>520.7166611426684</v>
+        <v>470.2946957351838</v>
       </c>
       <c r="Q16" t="n">
-        <v>520.7166611426684</v>
+        <v>520.7166611426686</v>
       </c>
       <c r="R16" t="n">
-        <v>495.1795934633085</v>
+        <v>495.1795934633087</v>
       </c>
       <c r="S16" t="n">
-        <v>437.3111286015784</v>
+        <v>437.3111286015786</v>
       </c>
       <c r="T16" t="n">
-        <v>391.2370939578862</v>
+        <v>391.2370939578864</v>
       </c>
       <c r="U16" t="n">
-        <v>279.6125557604136</v>
+        <v>279.6125557604138</v>
       </c>
       <c r="V16" t="n">
-        <v>211.9754335064923</v>
+        <v>211.9754335064924</v>
       </c>
       <c r="W16" t="n">
-        <v>98.68003660117151</v>
+        <v>98.68003660117157</v>
       </c>
       <c r="X16" t="n">
-        <v>54.46671210099498</v>
+        <v>54.466712100995</v>
       </c>
       <c r="Y16" t="n">
         <v>15.07983466553978</v>
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.3923242961947</v>
+        <v>463.3923242961946</v>
       </c>
       <c r="C17" t="n">
-        <v>410.1015905040791</v>
+        <v>410.101590504079</v>
       </c>
       <c r="D17" t="n">
         <v>369.3697837210054</v>
@@ -5501,7 +5501,7 @@
         <v>294.5907522718622</v>
       </c>
       <c r="F17" t="n">
-        <v>187.7709757940551</v>
+        <v>187.770975794055</v>
       </c>
       <c r="G17" t="n">
         <v>65.15430707116215</v>
@@ -5510,46 +5510,46 @@
         <v>15.07983466553978</v>
       </c>
       <c r="I17" t="n">
-        <v>70.95335735993307</v>
+        <v>70.95335735993308</v>
       </c>
       <c r="J17" t="n">
-        <v>85.14038870971942</v>
+        <v>70.95335735993308</v>
       </c>
       <c r="K17" t="n">
-        <v>85.14038870971942</v>
+        <v>70.95335735993308</v>
       </c>
       <c r="L17" t="n">
-        <v>271.7533426957742</v>
+        <v>117.6741998406932</v>
       </c>
       <c r="M17" t="n">
-        <v>352.6152417827215</v>
+        <v>198.5360989276406</v>
       </c>
       <c r="N17" t="n">
-        <v>427.9431349184139</v>
+        <v>273.8639920633329</v>
       </c>
       <c r="O17" t="n">
-        <v>462.1637696110816</v>
+        <v>308.0846267560007</v>
       </c>
       <c r="P17" t="n">
-        <v>462.1637696110816</v>
+        <v>308.0846267560007</v>
       </c>
       <c r="Q17" t="n">
-        <v>462.1637696110816</v>
+        <v>462.1637696110818</v>
       </c>
       <c r="R17" t="n">
-        <v>563.704233900253</v>
+        <v>563.7042339002531</v>
       </c>
       <c r="S17" t="n">
-        <v>632.9356035051039</v>
+        <v>632.935603505104</v>
       </c>
       <c r="T17" t="n">
-        <v>707.1675751369975</v>
+        <v>707.1675751369976</v>
       </c>
       <c r="U17" t="n">
-        <v>753.9917332769888</v>
+        <v>753.991733276989</v>
       </c>
       <c r="V17" t="n">
-        <v>730.3229325879306</v>
+        <v>730.3229325879307</v>
       </c>
       <c r="W17" t="n">
         <v>689.4655660235039</v>
@@ -5558,7 +5558,7 @@
         <v>626.5008757530779</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.8060308122037</v>
+        <v>540.8060308122036</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>68.0850572755424</v>
+        <v>552.3230526637797</v>
       </c>
       <c r="C18" t="n">
-        <v>68.0850572755424</v>
+        <v>552.3230526637797</v>
       </c>
       <c r="D18" t="n">
-        <v>68.0850572755424</v>
+        <v>552.3230526637797</v>
       </c>
       <c r="E18" t="n">
-        <v>68.0850572755424</v>
+        <v>378.7598487851941</v>
       </c>
       <c r="F18" t="n">
-        <v>68.0850572755424</v>
+        <v>218.3321325024382</v>
       </c>
       <c r="G18" t="n">
         <v>68.0850572755424</v>
@@ -5595,49 +5595,49 @@
         <v>15.07983466553978</v>
       </c>
       <c r="K18" t="n">
-        <v>53.04316068142017</v>
+        <v>53.04316068142018</v>
       </c>
       <c r="L18" t="n">
-        <v>170.3760798097943</v>
+        <v>170.3760798097944</v>
       </c>
       <c r="M18" t="n">
-        <v>352.0527264137997</v>
+        <v>352.0527264137999</v>
       </c>
       <c r="N18" t="n">
-        <v>538.6656803998545</v>
+        <v>538.6656803998546</v>
       </c>
       <c r="O18" t="n">
-        <v>670.366620018889</v>
+        <v>670.3666200188891</v>
       </c>
       <c r="P18" t="n">
-        <v>753.9917332769888</v>
+        <v>753.991733276989</v>
       </c>
       <c r="Q18" t="n">
-        <v>747.0528889596545</v>
+        <v>747.0528889596546</v>
       </c>
       <c r="R18" t="n">
-        <v>747.0528889596545</v>
+        <v>747.0528889596546</v>
       </c>
       <c r="S18" t="n">
-        <v>747.0528889596545</v>
+        <v>747.0528889596546</v>
       </c>
       <c r="T18" t="n">
-        <v>556.65093611193</v>
+        <v>747.0528889596546</v>
       </c>
       <c r="U18" t="n">
-        <v>366.2489832642055</v>
+        <v>742.7250055115042</v>
       </c>
       <c r="V18" t="n">
-        <v>175.8470304164811</v>
+        <v>552.3230526637797</v>
       </c>
       <c r="W18" t="n">
-        <v>68.0850572755424</v>
+        <v>552.3230526637797</v>
       </c>
       <c r="X18" t="n">
-        <v>68.0850572755424</v>
+        <v>552.3230526637797</v>
       </c>
       <c r="Y18" t="n">
-        <v>68.0850572755424</v>
+        <v>552.3230526637797</v>
       </c>
     </row>
     <row r="19">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>463.3923242961946</v>
+        <v>463.3923242961948</v>
       </c>
       <c r="C20" t="n">
         <v>410.1015905040792</v>
       </c>
       <c r="D20" t="n">
-        <v>369.3697837210053</v>
+        <v>369.3697837210051</v>
       </c>
       <c r="E20" t="n">
-        <v>294.5907522718621</v>
+        <v>294.5907522718619</v>
       </c>
       <c r="F20" t="n">
-        <v>187.7709757940552</v>
+        <v>187.7709757940547</v>
       </c>
       <c r="G20" t="n">
-        <v>65.15430707116215</v>
+        <v>65.15430707116217</v>
       </c>
       <c r="H20" t="n">
         <v>15.07983466553978</v>
@@ -5750,52 +5750,52 @@
         <v>70.95335735993307</v>
       </c>
       <c r="J20" t="n">
-        <v>85.14038870971942</v>
+        <v>257.5663113459879</v>
       </c>
       <c r="K20" t="n">
-        <v>85.14038870971942</v>
+        <v>271.8566583550055</v>
       </c>
       <c r="L20" t="n">
-        <v>271.7533426957742</v>
+        <v>318.5775008357656</v>
       </c>
       <c r="M20" t="n">
-        <v>352.6152417827215</v>
+        <v>399.4393999227129</v>
       </c>
       <c r="N20" t="n">
-        <v>427.9431349184139</v>
+        <v>474.7672930584054</v>
       </c>
       <c r="O20" t="n">
-        <v>462.1637696110816</v>
+        <v>508.9879277510731</v>
       </c>
       <c r="P20" t="n">
-        <v>462.1637696110816</v>
+        <v>508.9879277510731</v>
       </c>
       <c r="Q20" t="n">
-        <v>462.1637696110816</v>
+        <v>508.9879277510731</v>
       </c>
       <c r="R20" t="n">
-        <v>563.704233900253</v>
+        <v>610.5283920402445</v>
       </c>
       <c r="S20" t="n">
-        <v>632.9356035051039</v>
+        <v>679.7597616450954</v>
       </c>
       <c r="T20" t="n">
-        <v>707.1675751369975</v>
+        <v>753.991733276989</v>
       </c>
       <c r="U20" t="n">
-        <v>753.9917332769888</v>
+        <v>753.991733276989</v>
       </c>
       <c r="V20" t="n">
-        <v>730.3229325879304</v>
+        <v>730.3229325879306</v>
       </c>
       <c r="W20" t="n">
-        <v>689.4655660235037</v>
+        <v>689.4655660235039</v>
       </c>
       <c r="X20" t="n">
-        <v>626.5008757530777</v>
+        <v>626.5008757530779</v>
       </c>
       <c r="Y20" t="n">
-        <v>540.8060308122035</v>
+        <v>540.8060308122037</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>747.0528889596545</v>
+        <v>568.5170360327195</v>
       </c>
       <c r="C21" t="n">
-        <v>557.6406146926182</v>
+        <v>379.1047617656832</v>
       </c>
       <c r="D21" t="n">
-        <v>396.8604984536499</v>
+        <v>218.3246455267149</v>
       </c>
       <c r="E21" t="n">
-        <v>223.2972945750644</v>
+        <v>218.3246455267149</v>
       </c>
       <c r="F21" t="n">
-        <v>62.86957829230849</v>
+        <v>57.89692924395902</v>
       </c>
       <c r="G21" t="n">
         <v>15.07983466553978</v>
@@ -5832,49 +5832,49 @@
         <v>15.07983466553978</v>
       </c>
       <c r="K21" t="n">
-        <v>53.04316068142018</v>
+        <v>53.04316068142029</v>
       </c>
       <c r="L21" t="n">
-        <v>170.3760798097943</v>
+        <v>170.3760798097944</v>
       </c>
       <c r="M21" t="n">
-        <v>352.0527264137997</v>
+        <v>352.0527264137999</v>
       </c>
       <c r="N21" t="n">
-        <v>538.6656803998545</v>
+        <v>538.6656803998546</v>
       </c>
       <c r="O21" t="n">
-        <v>670.366620018889</v>
+        <v>670.3666200188891</v>
       </c>
       <c r="P21" t="n">
-        <v>753.9917332769888</v>
+        <v>753.991733276989</v>
       </c>
       <c r="Q21" t="n">
-        <v>747.0528889596545</v>
+        <v>747.0528889596546</v>
       </c>
       <c r="R21" t="n">
-        <v>747.0528889596545</v>
+        <v>747.0528889596546</v>
       </c>
       <c r="S21" t="n">
-        <v>747.0528889596545</v>
+        <v>747.0528889596546</v>
       </c>
       <c r="T21" t="n">
-        <v>747.0528889596545</v>
+        <v>747.0528889596546</v>
       </c>
       <c r="U21" t="n">
-        <v>747.0528889596545</v>
+        <v>747.0528889596546</v>
       </c>
       <c r="V21" t="n">
-        <v>747.0528889596545</v>
+        <v>747.0528889596546</v>
       </c>
       <c r="W21" t="n">
-        <v>747.0528889596545</v>
+        <v>747.0528889596546</v>
       </c>
       <c r="X21" t="n">
-        <v>747.0528889596545</v>
+        <v>747.0528889596546</v>
       </c>
       <c r="Y21" t="n">
-        <v>747.0528889596545</v>
+        <v>747.0528889596546</v>
       </c>
     </row>
     <row r="22">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>463.3923242961956</v>
+        <v>463.3923242961948</v>
       </c>
       <c r="C23" t="n">
-        <v>410.10159050408</v>
+        <v>410.1015905040792</v>
       </c>
       <c r="D23" t="n">
-        <v>369.3697837210062</v>
+        <v>369.3697837210054</v>
       </c>
       <c r="E23" t="n">
-        <v>294.5907522718627</v>
+        <v>294.5907522718619</v>
       </c>
       <c r="F23" t="n">
-        <v>187.7709757940555</v>
+        <v>187.7709757940547</v>
       </c>
       <c r="G23" t="n">
-        <v>65.15430707116217</v>
+        <v>65.15430707116215</v>
       </c>
       <c r="H23" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I23" t="n">
-        <v>70.95335735993308</v>
+        <v>70.95335735993307</v>
       </c>
       <c r="J23" t="n">
-        <v>70.95335735993308</v>
+        <v>70.95335735993307</v>
       </c>
       <c r="K23" t="n">
-        <v>70.95335735993308</v>
+        <v>70.95335735993307</v>
       </c>
       <c r="L23" t="n">
         <v>117.6741998406932</v>
@@ -6005,34 +6005,34 @@
         <v>308.0846267560007</v>
       </c>
       <c r="P23" t="n">
-        <v>322.374973765019</v>
+        <v>308.0846267560007</v>
       </c>
       <c r="Q23" t="n">
-        <v>508.9879277510739</v>
+        <v>462.1637696110818</v>
       </c>
       <c r="R23" t="n">
-        <v>610.5283920402453</v>
+        <v>563.7042339002531</v>
       </c>
       <c r="S23" t="n">
-        <v>679.7597616450962</v>
+        <v>632.935603505104</v>
       </c>
       <c r="T23" t="n">
-        <v>753.9917332769897</v>
+        <v>707.1675751369976</v>
       </c>
       <c r="U23" t="n">
-        <v>753.9917332769897</v>
+        <v>753.991733276989</v>
       </c>
       <c r="V23" t="n">
-        <v>730.3229325879314</v>
+        <v>730.3229325879306</v>
       </c>
       <c r="W23" t="n">
-        <v>689.4655660235049</v>
+        <v>689.4655660235042</v>
       </c>
       <c r="X23" t="n">
-        <v>626.500875753079</v>
+        <v>626.5008757530782</v>
       </c>
       <c r="Y23" t="n">
-        <v>540.8060308122047</v>
+        <v>540.8060308122039</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>747.0528889596554</v>
+        <v>365.2722251715443</v>
       </c>
       <c r="C24" t="n">
-        <v>557.6406146926191</v>
+        <v>175.859950904508</v>
       </c>
       <c r="D24" t="n">
-        <v>396.8604984536508</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="E24" t="n">
-        <v>223.2972945750653</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="F24" t="n">
-        <v>62.8695782923094</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="G24" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="H24" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I24" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="J24" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="K24" t="n">
-        <v>53.04316068142091</v>
+        <v>53.04316068142017</v>
       </c>
       <c r="L24" t="n">
-        <v>170.376079809795</v>
+        <v>170.3760798097943</v>
       </c>
       <c r="M24" t="n">
-        <v>352.0527264138005</v>
+        <v>352.0527264137997</v>
       </c>
       <c r="N24" t="n">
-        <v>538.6656803998554</v>
+        <v>538.6656803998545</v>
       </c>
       <c r="O24" t="n">
-        <v>670.3666200188899</v>
+        <v>670.366620018889</v>
       </c>
       <c r="P24" t="n">
-        <v>753.9917332769897</v>
+        <v>753.991733276989</v>
       </c>
       <c r="Q24" t="n">
-        <v>747.0528889596554</v>
+        <v>747.0528889596546</v>
       </c>
       <c r="R24" t="n">
-        <v>747.0528889596554</v>
+        <v>747.0528889596546</v>
       </c>
       <c r="S24" t="n">
-        <v>747.0528889596554</v>
+        <v>747.0528889596546</v>
       </c>
       <c r="T24" t="n">
-        <v>747.0528889596554</v>
+        <v>747.0528889596546</v>
       </c>
       <c r="U24" t="n">
-        <v>747.0528889596554</v>
+        <v>747.0528889596546</v>
       </c>
       <c r="V24" t="n">
-        <v>747.0528889596554</v>
+        <v>747.0528889596546</v>
       </c>
       <c r="W24" t="n">
-        <v>747.0528889596554</v>
+        <v>734.2100309462039</v>
       </c>
       <c r="X24" t="n">
-        <v>747.0528889596554</v>
+        <v>543.8080780984794</v>
       </c>
       <c r="Y24" t="n">
-        <v>747.0528889596554</v>
+        <v>543.8080780984794</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="C25" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="D25" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="E25" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="F25" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="G25" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="H25" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I25" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="J25" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="K25" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="L25" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="M25" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="N25" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="O25" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="P25" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="R25" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="S25" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="T25" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="U25" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="V25" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="W25" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="X25" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="Y25" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
     </row>
     <row r="26">
@@ -6203,19 +6203,19 @@
         <v>1020.898422489611</v>
       </c>
       <c r="C26" t="n">
-        <v>882.7966579874112</v>
+        <v>882.7966579874108</v>
       </c>
       <c r="D26" t="n">
-        <v>757.2538204942533</v>
+        <v>757.2538204942527</v>
       </c>
       <c r="E26" t="n">
-        <v>597.6637583350259</v>
+        <v>597.6637583350254</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0329511471345</v>
+        <v>406.0329511471339</v>
       </c>
       <c r="G26" t="n">
-        <v>198.6052517141572</v>
+        <v>198.6052517141566</v>
       </c>
       <c r="H26" t="n">
         <v>63.71974859845021</v>
@@ -6230,10 +6230,10 @@
         <v>375.942782452878</v>
       </c>
       <c r="L26" t="n">
-        <v>634.013527952399</v>
+        <v>634.0135279523993</v>
       </c>
       <c r="M26" t="n">
-        <v>926.2253300581074</v>
+        <v>926.2253300581076</v>
       </c>
       <c r="N26" t="n">
         <v>1212.903126212561</v>
@@ -6251,13 +6251,13 @@
         <v>1795.834970757104</v>
       </c>
       <c r="S26" t="n">
-        <v>1781.660986883924</v>
+        <v>1781.660986883925</v>
       </c>
       <c r="T26" t="n">
         <v>1772.589137514411</v>
       </c>
       <c r="U26" t="n">
-        <v>1735.552985020827</v>
+        <v>1735.552985020826</v>
       </c>
       <c r="V26" t="n">
         <v>1627.073153621684</v>
@@ -6266,7 +6266,7 @@
         <v>1501.404756347173</v>
       </c>
       <c r="X26" t="n">
-        <v>1353.629035366663</v>
+        <v>1353.629035366662</v>
       </c>
       <c r="Y26" t="n">
         <v>1183.123159715704</v>
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>494.0381058836704</v>
+        <v>479.0479069722174</v>
       </c>
       <c r="C27" t="n">
-        <v>494.0381058836704</v>
+        <v>479.0479069722174</v>
       </c>
       <c r="D27" t="n">
-        <v>333.2579896447022</v>
+        <v>318.2677907332492</v>
       </c>
       <c r="E27" t="n">
-        <v>159.6947857661167</v>
+        <v>144.7045868546636</v>
       </c>
       <c r="F27" t="n">
-        <v>35.91669941514207</v>
+        <v>144.7045868546636</v>
       </c>
       <c r="G27" t="n">
         <v>35.91669941514207</v>
@@ -6330,25 +6330,25 @@
         <v>793.1206204512955</v>
       </c>
       <c r="S27" t="n">
-        <v>793.1206204512955</v>
+        <v>599.5945686129073</v>
       </c>
       <c r="T27" t="n">
-        <v>791.6194355204982</v>
+        <v>598.09338368211</v>
       </c>
       <c r="U27" t="n">
-        <v>767.6362850428339</v>
+        <v>574.1102332044458</v>
       </c>
       <c r="V27" t="n">
-        <v>740.1977290919236</v>
+        <v>546.6716772535354</v>
       </c>
       <c r="W27" t="n">
-        <v>686.4403219676705</v>
+        <v>492.9142701292823</v>
       </c>
       <c r="X27" t="n">
-        <v>682.5734897298223</v>
+        <v>489.0474378914342</v>
       </c>
       <c r="Y27" t="n">
-        <v>672.5739588106055</v>
+        <v>479.0479069722174</v>
       </c>
     </row>
     <row r="28">
@@ -6370,40 +6370,40 @@
         <v>35.91669941514207</v>
       </c>
       <c r="F28" t="n">
-        <v>35.91669941514207</v>
+        <v>109.7289890376409</v>
       </c>
       <c r="G28" t="n">
-        <v>35.91669941514207</v>
+        <v>109.7289890376409</v>
       </c>
       <c r="H28" t="n">
-        <v>35.91669941514207</v>
+        <v>156.9127383782819</v>
       </c>
       <c r="I28" t="n">
-        <v>35.91669941514207</v>
+        <v>205.0582030097575</v>
       </c>
       <c r="J28" t="n">
-        <v>35.91669941514207</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="K28" t="n">
-        <v>35.91669941514207</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="L28" t="n">
-        <v>35.91669941514207</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="M28" t="n">
-        <v>35.91669941514207</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="N28" t="n">
-        <v>81.96246484036396</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="O28" t="n">
-        <v>256.2082727013259</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="P28" t="n">
-        <v>256.2082727013259</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="Q28" t="n">
-        <v>256.2082727013259</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="R28" t="n">
         <v>266.1625141760092</v>
@@ -6440,28 +6440,28 @@
         <v>1020.898422489611</v>
       </c>
       <c r="C29" t="n">
-        <v>882.7966579874109</v>
+        <v>882.7966579874113</v>
       </c>
       <c r="D29" t="n">
-        <v>757.253820494253</v>
+        <v>757.2538204942534</v>
       </c>
       <c r="E29" t="n">
-        <v>597.6637583350255</v>
+        <v>597.663758335026</v>
       </c>
       <c r="F29" t="n">
-        <v>406.032951147134</v>
+        <v>406.0329511471347</v>
       </c>
       <c r="G29" t="n">
-        <v>198.6052517141567</v>
+        <v>198.6052517141574</v>
       </c>
       <c r="H29" t="n">
-        <v>63.71974859845005</v>
+        <v>63.71974859845068</v>
       </c>
       <c r="I29" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514209</v>
       </c>
       <c r="J29" t="n">
-        <v>171.2527996589549</v>
+        <v>171.252799658955</v>
       </c>
       <c r="K29" t="n">
         <v>375.942782452878</v>
@@ -6470,7 +6470,7 @@
         <v>634.013527952399</v>
       </c>
       <c r="M29" t="n">
-        <v>926.2253300581073</v>
+        <v>926.2253300581075</v>
       </c>
       <c r="N29" t="n">
         <v>1212.903126212561</v>
@@ -6488,25 +6488,25 @@
         <v>1795.834970757104</v>
       </c>
       <c r="S29" t="n">
-        <v>1781.660986883924</v>
+        <v>1781.660986883925</v>
       </c>
       <c r="T29" t="n">
-        <v>1772.589137514411</v>
+        <v>1772.589137514412</v>
       </c>
       <c r="U29" t="n">
-        <v>1735.552985020826</v>
+        <v>1735.552985020827</v>
       </c>
       <c r="V29" t="n">
         <v>1627.073153621684</v>
       </c>
       <c r="W29" t="n">
-        <v>1501.404756347173</v>
+        <v>1501.404756347174</v>
       </c>
       <c r="X29" t="n">
-        <v>1353.629035366662</v>
+        <v>1353.629035366663</v>
       </c>
       <c r="Y29" t="n">
-        <v>1183.123159715704</v>
+        <v>1183.123159715705</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>487.0992615663361</v>
+        <v>320.8521898074959</v>
       </c>
       <c r="C30" t="n">
-        <v>297.6869872992999</v>
+        <v>320.8521898074959</v>
       </c>
       <c r="D30" t="n">
-        <v>136.9068710603316</v>
+        <v>320.8521898074959</v>
       </c>
       <c r="E30" t="n">
-        <v>35.91669941514208</v>
+        <v>147.2889859289104</v>
       </c>
       <c r="F30" t="n">
-        <v>35.91669941514208</v>
+        <v>147.2889859289104</v>
       </c>
       <c r="G30" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514209</v>
       </c>
       <c r="H30" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514209</v>
       </c>
       <c r="I30" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514209</v>
       </c>
       <c r="J30" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514209</v>
       </c>
       <c r="K30" t="n">
-        <v>73.88002543102246</v>
+        <v>73.88002543102249</v>
       </c>
       <c r="L30" t="n">
         <v>191.2129445593966</v>
       </c>
       <c r="M30" t="n">
-        <v>372.889591163402</v>
+        <v>372.8895911634021</v>
       </c>
       <c r="N30" t="n">
-        <v>577.7945675741612</v>
+        <v>577.7945675741613</v>
       </c>
       <c r="O30" t="n">
-        <v>709.4955071931956</v>
+        <v>709.4955071931957</v>
       </c>
       <c r="P30" t="n">
-        <v>793.1206204512955</v>
+        <v>793.1206204512956</v>
       </c>
       <c r="Q30" t="n">
-        <v>786.1817761339612</v>
+        <v>793.1206204512956</v>
       </c>
       <c r="R30" t="n">
-        <v>786.1817761339612</v>
+        <v>657.0400135936414</v>
       </c>
       <c r="S30" t="n">
-        <v>786.1817761339612</v>
+        <v>657.0400135936414</v>
       </c>
       <c r="T30" t="n">
-        <v>784.6805912031639</v>
+        <v>655.5388286628441</v>
       </c>
       <c r="U30" t="n">
-        <v>760.6974407254996</v>
+        <v>415.9145160397243</v>
       </c>
       <c r="V30" t="n">
-        <v>733.2588847745893</v>
+        <v>388.4759600888139</v>
       </c>
       <c r="W30" t="n">
-        <v>679.5014776503361</v>
+        <v>334.7185529645608</v>
       </c>
       <c r="X30" t="n">
-        <v>675.634645412488</v>
+        <v>330.8517207267127</v>
       </c>
       <c r="Y30" t="n">
-        <v>665.6351144932712</v>
+        <v>320.8521898074959</v>
       </c>
     </row>
     <row r="31">
@@ -6595,52 +6595,52 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35.91669941514208</v>
+        <v>71.42585097558467</v>
       </c>
       <c r="C31" t="n">
-        <v>35.91669941514208</v>
+        <v>117.983144832093</v>
       </c>
       <c r="D31" t="n">
-        <v>35.91669941514208</v>
+        <v>117.983144832093</v>
       </c>
       <c r="E31" t="n">
-        <v>35.91669941514208</v>
+        <v>148.0140887126304</v>
       </c>
       <c r="F31" t="n">
-        <v>35.91669941514208</v>
+        <v>221.8263783351292</v>
       </c>
       <c r="G31" t="n">
-        <v>35.91669941514208</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="H31" t="n">
-        <v>63.07258538888749</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="I31" t="n">
-        <v>111.2180500203631</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="J31" t="n">
-        <v>111.2180500203631</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="K31" t="n">
-        <v>256.208272701326</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="L31" t="n">
-        <v>256.208272701326</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="M31" t="n">
-        <v>256.208272701326</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="N31" t="n">
-        <v>256.208272701326</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="O31" t="n">
-        <v>256.208272701326</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="P31" t="n">
-        <v>256.208272701326</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="Q31" t="n">
-        <v>256.208272701326</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="R31" t="n">
         <v>266.1625141760092</v>
@@ -6658,13 +6658,13 @@
         <v>125.7320365259939</v>
       </c>
       <c r="W31" t="n">
-        <v>48.13006019737336</v>
+        <v>48.13006019737337</v>
       </c>
       <c r="X31" t="n">
-        <v>39.61015627389705</v>
+        <v>39.61015627389707</v>
       </c>
       <c r="Y31" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514209</v>
       </c>
     </row>
     <row r="32">
@@ -6674,64 +6674,64 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1014.789988510278</v>
+        <v>1014.789988510279</v>
       </c>
       <c r="C32" t="n">
-        <v>877.5242945806687</v>
+        <v>877.5242945806691</v>
       </c>
       <c r="D32" t="n">
-        <v>752.8175276601008</v>
+        <v>752.8175276601014</v>
       </c>
       <c r="E32" t="n">
-        <v>594.0635360734635</v>
+        <v>594.0635360734641</v>
       </c>
       <c r="F32" t="n">
-        <v>403.2687994581622</v>
+        <v>403.2687994581628</v>
       </c>
       <c r="G32" t="n">
-        <v>196.6771705977755</v>
+        <v>196.6771705977756</v>
       </c>
       <c r="H32" t="n">
-        <v>62.62773805465902</v>
+        <v>62.62773805465901</v>
       </c>
       <c r="I32" t="n">
-        <v>35.660759443941</v>
+        <v>35.66075944394101</v>
       </c>
       <c r="J32" t="n">
         <v>171.8162924559495</v>
       </c>
       <c r="K32" t="n">
-        <v>377.325708018068</v>
+        <v>377.3257080180681</v>
       </c>
       <c r="L32" t="n">
-        <v>636.2158862857847</v>
+        <v>616.2999327831726</v>
       </c>
       <c r="M32" t="n">
-        <v>929.2471211596885</v>
+        <v>909.3311676570764</v>
       </c>
       <c r="N32" t="n">
-        <v>1216.744350082337</v>
+        <v>1196.828396579725</v>
       </c>
       <c r="O32" t="n">
-        <v>1463.134320561962</v>
+        <v>1443.21836705935</v>
       </c>
       <c r="P32" t="n">
         <v>1640.446650218728</v>
       </c>
       <c r="Q32" t="n">
-        <v>1763.801366338636</v>
+        <v>1763.801366338637</v>
       </c>
       <c r="R32" t="n">
-        <v>1783.03797219705</v>
+        <v>1783.037972197051</v>
       </c>
       <c r="S32" t="n">
-        <v>1769.700058896461</v>
+        <v>1769.700058896462</v>
       </c>
       <c r="T32" t="n">
         <v>1761.464280099538</v>
       </c>
       <c r="U32" t="n">
-        <v>1725.264198178543</v>
+        <v>1725.264198178544</v>
       </c>
       <c r="V32" t="n">
         <v>1617.620437351991</v>
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>677.3344422749452</v>
+        <v>491.859745030676</v>
       </c>
       <c r="C33" t="n">
-        <v>530.4317958442507</v>
+        <v>302.4474707636398</v>
       </c>
       <c r="D33" t="n">
-        <v>369.6516796052824</v>
+        <v>141.6673545246715</v>
       </c>
       <c r="E33" t="n">
-        <v>196.0884757266969</v>
+        <v>35.66075944394101</v>
       </c>
       <c r="F33" t="n">
-        <v>35.660759443941</v>
+        <v>35.66075944394101</v>
       </c>
       <c r="G33" t="n">
-        <v>35.660759443941</v>
+        <v>35.66075944394101</v>
       </c>
       <c r="H33" t="n">
-        <v>35.660759443941</v>
+        <v>35.66075944394101</v>
       </c>
       <c r="I33" t="n">
-        <v>35.660759443941</v>
+        <v>35.66075944394101</v>
       </c>
       <c r="J33" t="n">
-        <v>35.660759443941</v>
+        <v>35.66075944394101</v>
       </c>
       <c r="K33" t="n">
-        <v>73.62408545982139</v>
+        <v>73.6240854598214</v>
       </c>
       <c r="L33" t="n">
         <v>190.9570045881955</v>
       </c>
       <c r="M33" t="n">
-        <v>372.6336511922009</v>
+        <v>372.633651192201</v>
       </c>
       <c r="N33" t="n">
-        <v>577.5386276029601</v>
+        <v>577.5386276029602</v>
       </c>
       <c r="O33" t="n">
-        <v>709.2395672219945</v>
+        <v>709.2395672219947</v>
       </c>
       <c r="P33" t="n">
-        <v>792.8646804800944</v>
+        <v>792.8646804800945</v>
       </c>
       <c r="Q33" t="n">
-        <v>792.8646804800944</v>
+        <v>785.9258361627602</v>
       </c>
       <c r="R33" t="n">
-        <v>792.8646804800944</v>
+        <v>785.9258361627602</v>
       </c>
       <c r="S33" t="n">
-        <v>792.8646804800944</v>
+        <v>785.9258361627602</v>
       </c>
       <c r="T33" t="n">
-        <v>792.1995661218873</v>
+        <v>785.2607218045531</v>
       </c>
       <c r="U33" t="n">
-        <v>769.0524862168131</v>
+        <v>762.1136418994789</v>
       </c>
       <c r="V33" t="n">
-        <v>742.4500008384929</v>
+        <v>735.5111565211587</v>
       </c>
       <c r="W33" t="n">
-        <v>689.5286642868299</v>
+        <v>682.5898199694957</v>
       </c>
       <c r="X33" t="n">
-        <v>686.4979026215719</v>
+        <v>679.5590583042377</v>
       </c>
       <c r="Y33" t="n">
-        <v>677.3344422749452</v>
+        <v>670.3955979576111</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35.660759443941</v>
+        <v>71.98934377257918</v>
       </c>
       <c r="C34" t="n">
-        <v>62.07576691174654</v>
+        <v>119.3660703972831</v>
       </c>
       <c r="D34" t="n">
-        <v>62.07576691174654</v>
+        <v>119.3660703972831</v>
       </c>
       <c r="E34" t="n">
-        <v>62.07576691174654</v>
+        <v>119.3660703972831</v>
       </c>
       <c r="F34" t="n">
-        <v>62.07576691174654</v>
+        <v>119.3660703972831</v>
       </c>
       <c r="G34" t="n">
-        <v>62.07576691174654</v>
+        <v>119.3660703972831</v>
       </c>
       <c r="H34" t="n">
-        <v>62.07576691174654</v>
+        <v>119.3660703972831</v>
       </c>
       <c r="I34" t="n">
-        <v>62.07576691174654</v>
+        <v>119.3660703972831</v>
       </c>
       <c r="J34" t="n">
-        <v>62.07576691174654</v>
+        <v>119.3660703972831</v>
       </c>
       <c r="K34" t="n">
-        <v>62.07576691174654</v>
+        <v>119.3660703972831</v>
       </c>
       <c r="L34" t="n">
-        <v>62.07576691174654</v>
+        <v>119.3660703972831</v>
       </c>
       <c r="M34" t="n">
-        <v>249.2804059537986</v>
+        <v>260.0540801966771</v>
       </c>
       <c r="N34" t="n">
-        <v>249.2804059537986</v>
+        <v>260.0540801966771</v>
       </c>
       <c r="O34" t="n">
-        <v>249.2804059537986</v>
+        <v>260.0540801966771</v>
       </c>
       <c r="P34" t="n">
-        <v>249.2804059537986</v>
+        <v>260.0540801966771</v>
       </c>
       <c r="Q34" t="n">
-        <v>249.2804059537986</v>
+        <v>260.0540801966771</v>
       </c>
       <c r="R34" t="n">
-        <v>260.0540801966774</v>
+        <v>260.0540801966771</v>
       </c>
       <c r="S34" t="n">
-        <v>238.7151064842376</v>
+        <v>238.7151064842374</v>
       </c>
       <c r="T34" t="n">
-        <v>229.1705629898358</v>
+        <v>229.1705629898356</v>
       </c>
       <c r="U34" t="n">
-        <v>154.0755159416535</v>
+        <v>154.0755159416534</v>
       </c>
       <c r="V34" t="n">
-        <v>122.9678848370225</v>
+        <v>122.9678848370224</v>
       </c>
       <c r="W34" t="n">
-        <v>46.20197908099205</v>
+        <v>46.20197908099201</v>
       </c>
       <c r="X34" t="n">
-        <v>38.51814573010586</v>
+        <v>38.51814573010585</v>
       </c>
       <c r="Y34" t="n">
-        <v>35.660759443941</v>
+        <v>35.66075944394101</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>623.0190675361097</v>
+        <v>623.0190675361098</v>
       </c>
       <c r="C35" t="n">
         <v>544.083381551352</v>
@@ -6926,61 +6926,61 @@
         <v>244.8179102634022</v>
       </c>
       <c r="G35" t="n">
-        <v>96.55628934786678</v>
+        <v>96.55628934786685</v>
       </c>
       <c r="H35" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="I35" t="n">
-        <v>51.57576979998706</v>
+        <v>51.575769799987</v>
       </c>
       <c r="J35" t="n">
-        <v>244.900543598745</v>
+        <v>244.9005435987449</v>
       </c>
       <c r="K35" t="n">
-        <v>432.8985180875161</v>
+        <v>502.7567448750735</v>
       </c>
       <c r="L35" t="n">
-        <v>479.6193605682762</v>
+        <v>549.4775873558336</v>
       </c>
       <c r="M35" t="n">
-        <v>560.4812596552235</v>
+        <v>630.339486442781</v>
       </c>
       <c r="N35" t="n">
-        <v>635.809152790916</v>
+        <v>705.6673795784734</v>
       </c>
       <c r="O35" t="n">
-        <v>670.0297874835837</v>
+        <v>739.8880142711412</v>
       </c>
       <c r="P35" t="n">
-        <v>670.0297874835837</v>
+        <v>739.8880142711412</v>
       </c>
       <c r="Q35" t="n">
-        <v>850.5537443902421</v>
+        <v>850.5537443902426</v>
       </c>
       <c r="R35" t="n">
-        <v>926.959591035405</v>
+        <v>926.9595910354054</v>
       </c>
       <c r="S35" t="n">
-        <v>971.0563429962473</v>
+        <v>971.0563429962477</v>
       </c>
       <c r="T35" t="n">
-        <v>1020.153696984132</v>
+        <v>1020.153696984133</v>
       </c>
       <c r="U35" t="n">
         <v>1041.843237480115</v>
       </c>
       <c r="V35" t="n">
-        <v>992.5294845984142</v>
+        <v>992.5294845984147</v>
       </c>
       <c r="W35" t="n">
-        <v>926.0271658413453</v>
+        <v>926.0271658413455</v>
       </c>
       <c r="X35" t="n">
-        <v>837.4175233782772</v>
+        <v>837.4175233782775</v>
       </c>
       <c r="Y35" t="n">
-        <v>726.0777262447608</v>
+        <v>726.0777262447609</v>
       </c>
     </row>
     <row r="36">
@@ -6990,31 +6990,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>371.0292552556068</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="C36" t="n">
-        <v>181.6169809885706</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="D36" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="E36" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="F36" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="G36" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="H36" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="I36" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="J36" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="K36" t="n">
         <v>58.8001907654827</v>
@@ -7035,31 +7035,31 @@
         <v>778.0407857857558</v>
       </c>
       <c r="Q36" t="n">
-        <v>775.2058012472144</v>
+        <v>771.1019414684215</v>
       </c>
       <c r="R36" t="n">
-        <v>775.2058012472144</v>
+        <v>771.1019414684215</v>
       </c>
       <c r="S36" t="n">
-        <v>775.2058012472144</v>
+        <v>771.1019414684215</v>
       </c>
       <c r="T36" t="n">
-        <v>775.2058012472144</v>
+        <v>771.1019414684215</v>
       </c>
       <c r="U36" t="n">
-        <v>775.2058012472144</v>
+        <v>746.5163038656647</v>
       </c>
       <c r="V36" t="n">
-        <v>775.2058012472144</v>
+        <v>503.4365857692987</v>
       </c>
       <c r="W36" t="n">
-        <v>775.2058012472144</v>
+        <v>240.344859132906</v>
       </c>
       <c r="X36" t="n">
-        <v>775.2058012472144</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="Y36" t="n">
-        <v>549.565108182542</v>
+        <v>20.83686474960231</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.08161847952454</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="C37" t="n">
-        <v>29.08161847952454</v>
+        <v>56.037801664111</v>
       </c>
       <c r="D37" t="n">
-        <v>29.08161847952454</v>
+        <v>56.037801664111</v>
       </c>
       <c r="E37" t="n">
-        <v>29.08161847952454</v>
+        <v>56.037801664111</v>
       </c>
       <c r="F37" t="n">
-        <v>29.08161847952454</v>
+        <v>56.037801664111</v>
       </c>
       <c r="G37" t="n">
-        <v>29.08161847952454</v>
+        <v>56.037801664111</v>
       </c>
       <c r="H37" t="n">
-        <v>29.08161847952454</v>
+        <v>56.037801664111</v>
       </c>
       <c r="I37" t="n">
-        <v>29.08161847952454</v>
+        <v>56.037801664111</v>
       </c>
       <c r="J37" t="n">
-        <v>29.08161847952454</v>
+        <v>56.037801664111</v>
       </c>
       <c r="K37" t="n">
-        <v>29.08161847952454</v>
+        <v>56.037801664111</v>
       </c>
       <c r="L37" t="n">
-        <v>29.08161847952454</v>
+        <v>56.037801664111</v>
       </c>
       <c r="M37" t="n">
-        <v>29.08161847952454</v>
+        <v>56.037801664111</v>
       </c>
       <c r="N37" t="n">
-        <v>29.08161847952454</v>
+        <v>56.037801664111</v>
       </c>
       <c r="O37" t="n">
-        <v>29.08161847952454</v>
+        <v>56.037801664111</v>
       </c>
       <c r="P37" t="n">
-        <v>37.60190385293249</v>
+        <v>56.037801664111</v>
       </c>
       <c r="Q37" t="n">
-        <v>37.60190385293249</v>
+        <v>56.037801664111</v>
       </c>
       <c r="R37" t="n">
-        <v>37.60190385293249</v>
+        <v>56.037801664111</v>
       </c>
       <c r="S37" t="n">
-        <v>37.60190385293249</v>
+        <v>56.037801664111</v>
       </c>
       <c r="T37" t="n">
-        <v>37.60190385293249</v>
+        <v>56.037801664111</v>
       </c>
       <c r="U37" t="n">
-        <v>20.8368647496023</v>
+        <v>39.27276256078076</v>
       </c>
       <c r="V37" t="n">
-        <v>47.51751629070293</v>
+        <v>39.27276256078076</v>
       </c>
       <c r="W37" t="n">
-        <v>29.08161847952454</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="X37" t="n">
-        <v>29.08161847952454</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="Y37" t="n">
-        <v>29.08161847952454</v>
+        <v>20.83686474960231</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>623.0190675361102</v>
+        <v>623.0190675361105</v>
       </c>
       <c r="C38" t="n">
-        <v>544.0833815513525</v>
+        <v>544.0833815513527</v>
       </c>
       <c r="D38" t="n">
-        <v>477.7066225756368</v>
+        <v>477.7066225756369</v>
       </c>
       <c r="E38" t="n">
         <v>377.2826389338515</v>
@@ -7163,61 +7163,61 @@
         <v>244.8179102634022</v>
       </c>
       <c r="G38" t="n">
-        <v>96.55628934786678</v>
+        <v>96.55628934786685</v>
       </c>
       <c r="H38" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="I38" t="n">
-        <v>51.57576979998706</v>
+        <v>51.575769799987</v>
       </c>
       <c r="J38" t="n">
-        <v>244.900543598745</v>
+        <v>244.9005435987449</v>
       </c>
       <c r="K38" t="n">
-        <v>432.8985180875161</v>
+        <v>432.8985180875168</v>
       </c>
       <c r="L38" t="n">
-        <v>479.6193605682762</v>
+        <v>479.6193605682769</v>
       </c>
       <c r="M38" t="n">
-        <v>560.4812596552235</v>
+        <v>560.4812596552242</v>
       </c>
       <c r="N38" t="n">
-        <v>635.809152790916</v>
+        <v>635.8091527909166</v>
       </c>
       <c r="O38" t="n">
-        <v>670.0297874835837</v>
+        <v>670.0297874835844</v>
       </c>
       <c r="P38" t="n">
-        <v>670.0297874835837</v>
+        <v>670.0297874835844</v>
       </c>
       <c r="Q38" t="n">
-        <v>850.5537443902421</v>
+        <v>850.5537443902426</v>
       </c>
       <c r="R38" t="n">
-        <v>926.959591035405</v>
+        <v>926.9595910354054</v>
       </c>
       <c r="S38" t="n">
-        <v>971.0563429962473</v>
+        <v>971.0563429962477</v>
       </c>
       <c r="T38" t="n">
-        <v>1020.153696984132</v>
+        <v>1020.153696984133</v>
       </c>
       <c r="U38" t="n">
         <v>1041.843237480115</v>
       </c>
       <c r="V38" t="n">
-        <v>992.5294845984147</v>
+        <v>992.5294845984151</v>
       </c>
       <c r="W38" t="n">
-        <v>926.0271658413458</v>
+        <v>926.0271658413462</v>
       </c>
       <c r="X38" t="n">
-        <v>837.4175233782777</v>
+        <v>837.417523378278</v>
       </c>
       <c r="Y38" t="n">
-        <v>726.0777262447614</v>
+        <v>726.0777262447616</v>
       </c>
     </row>
     <row r="39">
@@ -7227,31 +7227,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>68.88991636563208</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="C39" t="n">
-        <v>68.88991636563208</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="D39" t="n">
-        <v>68.88991636563208</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="E39" t="n">
-        <v>68.88991636563208</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="F39" t="n">
-        <v>68.88991636563208</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="G39" t="n">
-        <v>68.88991636563208</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="H39" t="n">
-        <v>68.88991636563208</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="I39" t="n">
-        <v>68.88991636563208</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="J39" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="K39" t="n">
         <v>58.8001907654827</v>
@@ -7290,13 +7290,13 @@
         <v>288.3979107489357</v>
       </c>
       <c r="W39" t="n">
-        <v>288.3979107489357</v>
+        <v>25.30618411254289</v>
       </c>
       <c r="X39" t="n">
-        <v>68.88991636563208</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="Y39" t="n">
-        <v>68.88991636563208</v>
+        <v>20.83686474960231</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="C40" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="D40" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="E40" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="F40" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="G40" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="H40" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="I40" t="n">
-        <v>56.03780166411087</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="J40" t="n">
-        <v>56.03780166411087</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="K40" t="n">
-        <v>56.03780166411087</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="L40" t="n">
-        <v>56.03780166411087</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="M40" t="n">
-        <v>56.03780166411087</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="N40" t="n">
-        <v>56.03780166411087</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="O40" t="n">
-        <v>56.03780166411087</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="P40" t="n">
-        <v>56.03780166411087</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="Q40" t="n">
-        <v>56.03780166411087</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="R40" t="n">
-        <v>56.03780166411087</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="S40" t="n">
-        <v>56.03780166411087</v>
+        <v>56.037801664111</v>
       </c>
       <c r="T40" t="n">
-        <v>56.03780166411087</v>
+        <v>56.037801664111</v>
       </c>
       <c r="U40" t="n">
-        <v>39.27276256078069</v>
+        <v>39.27276256078076</v>
       </c>
       <c r="V40" t="n">
-        <v>39.27276256078069</v>
+        <v>39.27276256078076</v>
       </c>
       <c r="W40" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="X40" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="Y40" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960231</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>818.426354275317</v>
+        <v>818.4263542753167</v>
       </c>
       <c r="C41" t="n">
-        <v>708.1276389564251</v>
+        <v>708.127638956425</v>
       </c>
       <c r="D41" t="n">
-        <v>610.3878506465755</v>
+        <v>610.3878506465753</v>
       </c>
       <c r="E41" t="n">
-        <v>478.6008376706561</v>
+        <v>478.6008376706559</v>
       </c>
       <c r="F41" t="n">
-        <v>314.773079666073</v>
+        <v>314.7730796660726</v>
       </c>
       <c r="G41" t="n">
         <v>135.1484294164039</v>
       </c>
       <c r="H41" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="I41" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="J41" t="n">
         <v>190.6518442323786</v>
@@ -7415,46 +7415,46 @@
         <v>422.5915955308619</v>
       </c>
       <c r="L41" t="n">
-        <v>707.9121095349433</v>
+        <v>707.9121095349434</v>
       </c>
       <c r="M41" t="n">
-        <v>1027.373680145212</v>
+        <v>827.9822855495773</v>
       </c>
       <c r="N41" t="n">
-        <v>1102.701573280904</v>
+        <v>1141.909850208591</v>
       </c>
       <c r="O41" t="n">
-        <v>1136.922207973572</v>
+        <v>1176.130484901259</v>
       </c>
       <c r="P41" t="n">
-        <v>1189.488331811717</v>
+        <v>1176.130484901259</v>
       </c>
       <c r="Q41" t="n">
-        <v>1339.27338366799</v>
+        <v>1325.915536757532</v>
       </c>
       <c r="R41" t="n">
-        <v>1384.940325262769</v>
+        <v>1371.582478352311</v>
       </c>
       <c r="S41" t="n">
-        <v>1384.940325262769</v>
+        <v>1384.940325262768</v>
       </c>
       <c r="T41" t="n">
-        <v>1403.298774200269</v>
+        <v>1403.298774200268</v>
       </c>
       <c r="U41" t="n">
         <v>1394.065670889992</v>
       </c>
       <c r="V41" t="n">
-        <v>1313.388888674158</v>
+        <v>1313.388888674157</v>
       </c>
       <c r="W41" t="n">
-        <v>1215.523540582955</v>
+        <v>1215.523540582954</v>
       </c>
       <c r="X41" t="n">
-        <v>1095.550868785753</v>
+        <v>1095.550868785752</v>
       </c>
       <c r="Y41" t="n">
-        <v>952.8480423181021</v>
+        <v>952.8480423181019</v>
       </c>
     </row>
     <row r="42">
@@ -7464,40 +7464,40 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="C42" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="D42" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="E42" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="F42" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="G42" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="H42" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="I42" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="J42" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="K42" t="n">
-        <v>66.02930149988578</v>
+        <v>66.02930149988576</v>
       </c>
       <c r="L42" t="n">
         <v>183.3622206282599</v>
       </c>
       <c r="M42" t="n">
-        <v>365.0388672322654</v>
+        <v>365.0388672322653</v>
       </c>
       <c r="N42" t="n">
         <v>569.9438436430246</v>
@@ -7521,19 +7521,19 @@
         <v>778.3310522028246</v>
       </c>
       <c r="U42" t="n">
-        <v>760.0522572333837</v>
+        <v>778.3310522028246</v>
       </c>
       <c r="V42" t="n">
-        <v>516.9725391370177</v>
+        <v>778.3310522028246</v>
       </c>
       <c r="W42" t="n">
-        <v>247.573969867309</v>
+        <v>508.9324829331159</v>
       </c>
       <c r="X42" t="n">
-        <v>28.06597548400538</v>
+        <v>289.4244885498123</v>
       </c>
       <c r="Y42" t="n">
-        <v>28.06597548400538</v>
+        <v>63.78379548513993</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.06597548400538</v>
+        <v>130.133623560695</v>
       </c>
       <c r="C43" t="n">
-        <v>28.06597548400538</v>
+        <v>130.133623560695</v>
       </c>
       <c r="D43" t="n">
-        <v>28.06597548400538</v>
+        <v>130.133623560695</v>
       </c>
       <c r="E43" t="n">
-        <v>28.06597548400538</v>
+        <v>130.133623560695</v>
       </c>
       <c r="F43" t="n">
-        <v>28.06597548400538</v>
+        <v>130.133623560695</v>
       </c>
       <c r="G43" t="n">
-        <v>28.06597548400538</v>
+        <v>130.133623560695</v>
       </c>
       <c r="H43" t="n">
-        <v>28.06597548400538</v>
+        <v>130.133623560695</v>
       </c>
       <c r="I43" t="n">
-        <v>28.06597548400538</v>
+        <v>130.133623560695</v>
       </c>
       <c r="J43" t="n">
-        <v>28.06597548400538</v>
+        <v>130.133623560695</v>
       </c>
       <c r="K43" t="n">
-        <v>28.06597548400538</v>
+        <v>130.133623560695</v>
       </c>
       <c r="L43" t="n">
-        <v>28.06597548400538</v>
+        <v>130.133623560695</v>
       </c>
       <c r="M43" t="n">
-        <v>130.1336235606951</v>
+        <v>130.133623560695</v>
       </c>
       <c r="N43" t="n">
-        <v>130.1336235606951</v>
+        <v>130.133623560695</v>
       </c>
       <c r="O43" t="n">
-        <v>130.1336235606951</v>
+        <v>130.133623560695</v>
       </c>
       <c r="P43" t="n">
-        <v>130.1336235606951</v>
+        <v>130.133623560695</v>
       </c>
       <c r="Q43" t="n">
-        <v>130.1336235606951</v>
+        <v>130.133623560695</v>
       </c>
       <c r="R43" t="n">
-        <v>130.1336235606951</v>
+        <v>130.133623560695</v>
       </c>
       <c r="S43" t="n">
-        <v>130.1336235606951</v>
+        <v>130.133623560695</v>
       </c>
       <c r="T43" t="n">
-        <v>130.1336235606951</v>
+        <v>130.133623560695</v>
       </c>
       <c r="U43" t="n">
-        <v>82.00555512323083</v>
+        <v>82.00555512323078</v>
       </c>
       <c r="V43" t="n">
-        <v>77.86490262931781</v>
+        <v>77.86490262931778</v>
       </c>
       <c r="W43" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="X43" t="n">
-        <v>28.06597548400538</v>
+        <v>43.74489205839757</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.06597548400538</v>
+        <v>67.37470349569212</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>818.4263542753175</v>
+        <v>818.426354275317</v>
       </c>
       <c r="C44" t="n">
-        <v>708.1276389564259</v>
+        <v>708.1276389564252</v>
       </c>
       <c r="D44" t="n">
-        <v>610.387850646576</v>
+        <v>610.3878506465755</v>
       </c>
       <c r="E44" t="n">
-        <v>478.6008376706563</v>
+        <v>478.6008376706559</v>
       </c>
       <c r="F44" t="n">
-        <v>314.773079666073</v>
+        <v>314.7730796660726</v>
       </c>
       <c r="G44" t="n">
         <v>135.1484294164039</v>
       </c>
       <c r="H44" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="I44" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="J44" t="n">
         <v>190.6518442323786</v>
@@ -7652,37 +7652,37 @@
         <v>422.5915955308619</v>
       </c>
       <c r="L44" t="n">
-        <v>469.312438011622</v>
+        <v>707.9121095349434</v>
       </c>
       <c r="M44" t="n">
-        <v>550.1743370985694</v>
+        <v>842.9233381771552</v>
       </c>
       <c r="N44" t="n">
-        <v>679.651559789527</v>
+        <v>918.2512313128476</v>
       </c>
       <c r="O44" t="n">
-        <v>952.4718660055161</v>
+        <v>952.4718660055154</v>
       </c>
       <c r="P44" t="n">
         <v>1176.130484901259</v>
       </c>
       <c r="Q44" t="n">
-        <v>1325.915536757533</v>
+        <v>1325.915536757532</v>
       </c>
       <c r="R44" t="n">
         <v>1371.582478352311</v>
       </c>
       <c r="S44" t="n">
-        <v>1384.940325262769</v>
+        <v>1384.940325262768</v>
       </c>
       <c r="T44" t="n">
-        <v>1403.298774200269</v>
+        <v>1403.298774200268</v>
       </c>
       <c r="U44" t="n">
-        <v>1394.065670889993</v>
+        <v>1394.065670889992</v>
       </c>
       <c r="V44" t="n">
-        <v>1313.388888674158</v>
+        <v>1313.388888674157</v>
       </c>
       <c r="W44" t="n">
         <v>1215.523540582955</v>
@@ -7691,7 +7691,7 @@
         <v>1095.550868785753</v>
       </c>
       <c r="Y44" t="n">
-        <v>952.8480423181027</v>
+        <v>952.8480423181021</v>
       </c>
     </row>
     <row r="45">
@@ -7701,40 +7701,40 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>361.2716912689752</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="C45" t="n">
-        <v>171.8594170019389</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="D45" t="n">
-        <v>171.8594170019389</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="E45" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="F45" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="G45" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="H45" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="I45" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="J45" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="K45" t="n">
-        <v>66.02930149988578</v>
+        <v>66.02930149988576</v>
       </c>
       <c r="L45" t="n">
         <v>183.3622206282599</v>
       </c>
       <c r="M45" t="n">
-        <v>365.0388672322654</v>
+        <v>365.0388672322653</v>
       </c>
       <c r="N45" t="n">
         <v>569.9438436430246</v>
@@ -7746,31 +7746,31 @@
         <v>785.2698965201589</v>
       </c>
       <c r="Q45" t="n">
-        <v>785.2698965201589</v>
+        <v>778.3310522028246</v>
       </c>
       <c r="R45" t="n">
-        <v>785.2698965201589</v>
+        <v>778.3310522028246</v>
       </c>
       <c r="S45" t="n">
-        <v>785.2698965201589</v>
+        <v>778.3310522028246</v>
       </c>
       <c r="T45" t="n">
-        <v>785.2698965201589</v>
+        <v>778.3310522028246</v>
       </c>
       <c r="U45" t="n">
-        <v>785.2698965201589</v>
+        <v>742.61323220169</v>
       </c>
       <c r="V45" t="n">
-        <v>785.2698965201589</v>
+        <v>742.61323220169</v>
       </c>
       <c r="W45" t="n">
-        <v>759.3155385792139</v>
+        <v>473.2146629319814</v>
       </c>
       <c r="X45" t="n">
-        <v>539.8075441959103</v>
+        <v>253.7066685486777</v>
       </c>
       <c r="Y45" t="n">
-        <v>539.8075441959103</v>
+        <v>28.06597548400537</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.06597548400538</v>
+        <v>113.0578949031935</v>
       </c>
       <c r="C46" t="n">
-        <v>28.06597548400538</v>
+        <v>113.0578949031935</v>
       </c>
       <c r="D46" t="n">
-        <v>28.06597548400538</v>
+        <v>113.0578949031935</v>
       </c>
       <c r="E46" t="n">
-        <v>28.06597548400538</v>
+        <v>113.0578949031935</v>
       </c>
       <c r="F46" t="n">
-        <v>28.06597548400538</v>
+        <v>113.0578949031935</v>
       </c>
       <c r="G46" t="n">
-        <v>28.06597548400538</v>
+        <v>113.0578949031935</v>
       </c>
       <c r="H46" t="n">
-        <v>102.4994933292067</v>
+        <v>113.0578949031935</v>
       </c>
       <c r="I46" t="n">
-        <v>102.4994933292067</v>
+        <v>113.0578949031935</v>
       </c>
       <c r="J46" t="n">
-        <v>102.4994933292067</v>
+        <v>113.0578949031935</v>
       </c>
       <c r="K46" t="n">
-        <v>102.4994933292067</v>
+        <v>113.0578949031935</v>
       </c>
       <c r="L46" t="n">
-        <v>102.4994933292067</v>
+        <v>113.0578949031935</v>
       </c>
       <c r="M46" t="n">
-        <v>102.4994933292067</v>
+        <v>113.0578949031935</v>
       </c>
       <c r="N46" t="n">
-        <v>102.4994933292067</v>
+        <v>113.0578949031935</v>
       </c>
       <c r="O46" t="n">
-        <v>102.4994933292067</v>
+        <v>113.0578949031935</v>
       </c>
       <c r="P46" t="n">
-        <v>102.4994933292067</v>
+        <v>113.0578949031935</v>
       </c>
       <c r="Q46" t="n">
-        <v>102.4994933292067</v>
+        <v>113.0578949031935</v>
       </c>
       <c r="R46" t="n">
-        <v>124.6176159598926</v>
+        <v>113.0578949031935</v>
       </c>
       <c r="S46" t="n">
-        <v>130.1336235606951</v>
+        <v>113.0578949031935</v>
       </c>
       <c r="T46" t="n">
-        <v>130.1336235606951</v>
+        <v>130.133623560695</v>
       </c>
       <c r="U46" t="n">
-        <v>82.00555512323083</v>
+        <v>82.00555512323078</v>
       </c>
       <c r="V46" t="n">
-        <v>77.86490262931781</v>
+        <v>77.86490262931778</v>
       </c>
       <c r="W46" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="X46" t="n">
-        <v>28.06597548400538</v>
+        <v>46.96538615316655</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.06597548400538</v>
+        <v>70.5951975904611</v>
       </c>
     </row>
   </sheetData>
@@ -8532,22 +8532,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K9" t="n">
-        <v>171.3658051887314</v>
+        <v>168.166555548718</v>
       </c>
       <c r="L9" t="n">
         <v>172.23559297146</v>
       </c>
       <c r="M9" t="n">
-        <v>176.6027710248758</v>
+        <v>176.4735084131581</v>
       </c>
       <c r="N9" t="n">
         <v>160.2368887416667</v>
       </c>
       <c r="O9" t="n">
-        <v>173.9674182222222</v>
+        <v>177.1666678622357</v>
       </c>
       <c r="P9" t="n">
-        <v>166.5187640737787</v>
+        <v>166.6480266854964</v>
       </c>
       <c r="Q9" t="n">
         <v>136.1300824528302</v>
@@ -9480,7 +9480,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>171.373473584151</v>
+        <v>171.3734735841511</v>
       </c>
       <c r="L21" t="n">
         <v>240.3045437566416</v>
@@ -9717,7 +9717,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>171.3734735841517</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L24" t="n">
         <v>240.3045437566416</v>
@@ -9726,13 +9726,13 @@
         <v>301.77688131</v>
       </c>
       <c r="N24" t="n">
-        <v>292.1370682466385</v>
+        <v>292.1370682466384</v>
       </c>
       <c r="O24" t="n">
         <v>255.2227828913207</v>
       </c>
       <c r="P24" t="n">
-        <v>206.3638740786793</v>
+        <v>206.3638740786794</v>
       </c>
       <c r="Q24" t="n">
         <v>136.1300824528302</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>195.9389762247656</v>
+        <v>7.441042905518344</v>
       </c>
       <c r="C11" t="n">
-        <v>172.057233228111</v>
+        <v>172.0572332281111</v>
       </c>
       <c r="D11" t="n">
         <v>159.6238954891595</v>
       </c>
       <c r="E11" t="n">
-        <v>193.3306479085684</v>
+        <v>4.832714589321171</v>
       </c>
       <c r="F11" t="n">
-        <v>225.0509854869457</v>
+        <v>120.0729042954033</v>
       </c>
       <c r="G11" t="n">
-        <v>52.19197549033356</v>
+        <v>240.6899088095808</v>
       </c>
       <c r="H11" t="n">
-        <v>155.7288712829803</v>
+        <v>168.8731344554828</v>
       </c>
       <c r="I11" t="n">
-        <v>62.86150506240827</v>
+        <v>62.8615050624083</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,25 +23303,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>16.73328122929906</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>49.3687304053804</v>
+        <v>49.36873040538043</v>
       </c>
       <c r="T11" t="n">
-        <v>44.31761724675148</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>72.00227733958198</v>
+        <v>72.00227733958201</v>
       </c>
       <c r="V11" t="n">
-        <v>142.7315194560842</v>
+        <v>142.7315194560843</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>159.7481996726991</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>181.6344501416384</v>
       </c>
       <c r="Y11" t="n">
         <v>15.63936994613491</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.441042905518344</v>
+        <v>195.9389762247656</v>
       </c>
       <c r="C14" t="n">
-        <v>172.057233228111</v>
+        <v>172.0572332281111</v>
       </c>
       <c r="D14" t="n">
-        <v>159.6238954891595</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>193.3306479085684</v>
+        <v>4.832714589321171</v>
       </c>
       <c r="F14" t="n">
-        <v>128.1327655244695</v>
+        <v>225.0509854869457</v>
       </c>
       <c r="G14" t="n">
         <v>240.6899088095808</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>127.6422895322673</v>
       </c>
       <c r="I14" t="n">
-        <v>62.86150506240827</v>
+        <v>62.86150506240833</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>49.3687304053804</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>44.31761724675147</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>142.7315194560842</v>
+        <v>142.7315194560843</v>
       </c>
       <c r="W14" t="n">
-        <v>159.7481996726991</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>181.6344501416384</v>
       </c>
       <c r="Y14" t="n">
-        <v>15.63936994613491</v>
+        <v>204.1373032653821</v>
       </c>
     </row>
     <row r="15">
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-5.115907697472721e-13</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -26317,10 +26317,10 @@
         <v>22048.29987941149</v>
       </c>
       <c r="D2" t="n">
-        <v>22061.03289297874</v>
+        <v>22061.03289297875</v>
       </c>
       <c r="E2" t="n">
-        <v>18993.38571872834</v>
+        <v>18993.38571872835</v>
       </c>
       <c r="F2" t="n">
         <v>18993.38571872835</v>
@@ -26329,25 +26329,25 @@
         <v>22092.96372146342</v>
       </c>
       <c r="H2" t="n">
+        <v>22092.96372146343</v>
+      </c>
+      <c r="I2" t="n">
         <v>22092.96372146342</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>22092.96372146343</v>
       </c>
-      <c r="J2" t="n">
-        <v>22092.96372146342</v>
-      </c>
       <c r="K2" t="n">
-        <v>22092.96372146342</v>
+        <v>22092.96372146343</v>
       </c>
       <c r="L2" t="n">
         <v>22092.96372146343</v>
       </c>
       <c r="M2" t="n">
+        <v>22092.9637214634</v>
+      </c>
+      <c r="N2" t="n">
         <v>22092.96372146339</v>
-      </c>
-      <c r="N2" t="n">
-        <v>22092.9637214634</v>
       </c>
       <c r="O2" t="n">
         <v>22092.96372146342</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>95439.52541913331</v>
+        <v>95439.52541913334</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>96101.69331262469</v>
+        <v>96101.69331262473</v>
       </c>
       <c r="M3" t="n">
-        <v>46197.36629232282</v>
+        <v>46197.36629232275</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26430,13 +26430,13 @@
         <v>290416.1225000671</v>
       </c>
       <c r="G4" t="n">
+        <v>361023.990543289</v>
+      </c>
+      <c r="H4" t="n">
+        <v>361023.990543289</v>
+      </c>
+      <c r="I4" t="n">
         <v>361023.9905432889</v>
-      </c>
-      <c r="H4" t="n">
-        <v>361023.9905432889</v>
-      </c>
-      <c r="I4" t="n">
-        <v>361023.990543289</v>
       </c>
       <c r="J4" t="n">
         <v>361792.6027039131</v>
@@ -26488,16 +26488,16 @@
         <v>38672.33876582418</v>
       </c>
       <c r="I5" t="n">
-        <v>38672.3387658242</v>
+        <v>38672.33876582418</v>
       </c>
       <c r="J5" t="n">
         <v>47449.67722016352</v>
       </c>
       <c r="K5" t="n">
-        <v>47449.67722016352</v>
+        <v>47449.67722016353</v>
       </c>
       <c r="L5" t="n">
-        <v>47324.7475828481</v>
+        <v>47324.74758284812</v>
       </c>
       <c r="M5" t="n">
         <v>40913.29559868731</v>
@@ -26519,22 +26519,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-415370.9200601837</v>
+        <v>-415375.3864443889</v>
       </c>
       <c r="C6" t="n">
-        <v>-415370.9200601838</v>
+        <v>-415375.386444389</v>
       </c>
       <c r="D6" t="n">
-        <v>-416358.1500247779</v>
+        <v>-416361.3431076263</v>
       </c>
       <c r="E6" t="n">
-        <v>-579191.8088978007</v>
+        <v>-579501.7666980743</v>
       </c>
       <c r="F6" t="n">
-        <v>-300065.6937190865</v>
+        <v>-300375.65151936</v>
       </c>
       <c r="G6" t="n">
-        <v>-473042.891006783</v>
+        <v>-473042.8910067831</v>
       </c>
       <c r="H6" t="n">
         <v>-377603.3655876498</v>
@@ -26546,13 +26546,13 @@
         <v>-530645.5992094923</v>
       </c>
       <c r="K6" t="n">
-        <v>-387149.3162026132</v>
+        <v>-387149.3162026131</v>
       </c>
       <c r="L6" t="n">
         <v>-483111.2899105438</v>
       </c>
       <c r="M6" t="n">
-        <v>-425985.5735327626</v>
+        <v>-425985.5735327625</v>
       </c>
       <c r="N6" t="n">
         <v>-379788.2072404398</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="F2" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="G2" t="n">
         <v>297.4476709269844</v>
@@ -26808,28 +26808,28 @@
         <v>188.4979333192472</v>
       </c>
       <c r="I4" t="n">
-        <v>188.4979333192474</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="J4" t="n">
         <v>448.9587426892759</v>
       </c>
       <c r="K4" t="n">
-        <v>448.9587426892759</v>
+        <v>448.9587426892761</v>
       </c>
       <c r="L4" t="n">
-        <v>445.7594930492625</v>
+        <v>445.7594930492626</v>
       </c>
       <c r="M4" t="n">
-        <v>260.4608093700288</v>
+        <v>260.4608093700289</v>
       </c>
       <c r="N4" t="n">
-        <v>260.4608093700288</v>
+        <v>260.4608093700289</v>
       </c>
       <c r="O4" t="n">
-        <v>350.8246935500672</v>
+        <v>350.8246935500671</v>
       </c>
       <c r="P4" t="n">
-        <v>350.8246935500672</v>
+        <v>350.8246935500671</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>119.2994067739166</v>
+        <v>119.2994067739167</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.18534375008434</v>
+        <v>94.18534375008431</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>120.1271166407809</v>
       </c>
       <c r="M2" t="n">
-        <v>57.74670786540352</v>
+        <v>57.74670786540344</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>63.13594470929166</v>
+        <v>63.13594470929172</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>3.199249640013477</v>
       </c>
       <c r="E4" t="n">
-        <v>185.2986836792337</v>
+        <v>185.2986836792338</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>260.4608093700284</v>
+        <v>260.4608093700286</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>90.36388418003844</v>
+        <v>90.36388418003821</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>119.2994067739166</v>
+        <v>119.2994067739167</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>94.18534375008434</v>
+        <v>94.18534375008431</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>3.199249640013477</v>
       </c>
       <c r="M4" t="n">
-        <v>185.2986836792337</v>
+        <v>185.2986836792338</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27880,7 +27880,7 @@
         <v>58.46339092876153</v>
       </c>
       <c r="L8" t="n">
-        <v>17.12047468788361</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -27910,7 +27910,7 @@
         <v>250.1830790232068</v>
       </c>
       <c r="V8" t="n">
-        <v>320.879783609152</v>
+        <v>321.009699062343</v>
       </c>
       <c r="W8" t="n">
         <v>337.8964638257669</v>
@@ -27980,19 +27980,19 @@
         <v>145.0317031582867</v>
       </c>
       <c r="S9" t="n">
-        <v>192.4336248079265</v>
+        <v>195.63287444794</v>
       </c>
       <c r="T9" t="n">
-        <v>213.0301613335635</v>
+        <v>215.8480604164874</v>
       </c>
       <c r="U9" t="n">
         <v>237.2423862021824</v>
       </c>
       <c r="V9" t="n">
-        <v>240.6489209154022</v>
+        <v>237.8310218324784</v>
       </c>
       <c r="W9" t="n">
-        <v>266.7045835770116</v>
+        <v>263.5053339369981</v>
       </c>
       <c r="X9" t="n">
         <v>217.3129144394706</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="C11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="D11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="E11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="F11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="G11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="H11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="I11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="J11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="K11" t="n">
         <v>6.727192146300943</v>
       </c>
       <c r="L11" t="n">
-        <v>141.3051631366612</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>106.8192473728358</v>
+        <v>0.05802066359295566</v>
       </c>
       <c r="N11" t="n">
-        <v>68.92153760596062</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>153.9316356498858</v>
       </c>
       <c r="P11" t="n">
-        <v>15.09197235108874</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="Q11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="R11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="S11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="T11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="U11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="V11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="W11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="X11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="Y11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
     </row>
     <row r="12">
@@ -28169,16 +28169,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="D12" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>79.76083671286193</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
         <v>148.7446044746268</v>
@@ -28190,7 +28190,7 @@
         <v>107.3634103439873</v>
       </c>
       <c r="J12" t="n">
-        <v>52.47517038390259</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28217,25 +28217,25 @@
         <v>134.7198007890777</v>
       </c>
       <c r="S12" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="T12" t="n">
-        <v>138.3184791497392</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="U12" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="V12" t="n">
-        <v>178.1482641530678</v>
+        <v>52.15098759615501</v>
       </c>
       <c r="W12" t="n">
-        <v>178.1482641530678</v>
+        <v>78.20665025776435</v>
       </c>
       <c r="X12" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="Y12" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
     </row>
     <row r="13">
@@ -28245,10 +28245,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="C13" t="n">
-        <v>178.1482641530678</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D13" t="n">
         <v>145.1826502507107</v>
@@ -28272,49 +28272,49 @@
         <v>120.2396075829089</v>
       </c>
       <c r="K13" t="n">
-        <v>67.02998013918997</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="L13" t="n">
         <v>32.15181624817887</v>
       </c>
       <c r="M13" t="n">
-        <v>178.1482641530678</v>
+        <v>25.21686539889343</v>
       </c>
       <c r="N13" t="n">
-        <v>50.84027751724024</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="O13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="P13" t="n">
-        <v>178.1482641530678</v>
+        <v>155.2757536280111</v>
       </c>
       <c r="Q13" t="n">
-        <v>178.1482641530678</v>
+        <v>127.2169859636892</v>
       </c>
       <c r="R13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="S13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="T13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="U13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="V13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="W13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="X13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="Y13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
     </row>
     <row r="14">
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="C14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="D14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="E14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="F14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="G14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="H14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="I14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="J14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="K14" t="n">
-        <v>70.05882475099403</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="L14" t="n">
-        <v>141.3051631366612</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>106.8192473728358</v>
       </c>
       <c r="N14" t="n">
         <v>112.4091523741034</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>14.83300347739762</v>
       </c>
       <c r="P14" t="n">
         <v>15.09197235108874</v>
       </c>
       <c r="Q14" t="n">
-        <v>178.1482641530678</v>
+        <v>89.71173703742195</v>
       </c>
       <c r="R14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="S14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="T14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="U14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="V14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="W14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="X14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="Y14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
     </row>
     <row r="15">
@@ -28406,10 +28406,10 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="D15" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>171.8275718397997</v>
@@ -28427,7 +28427,7 @@
         <v>107.3634103439873</v>
       </c>
       <c r="J15" t="n">
-        <v>52.47517038390259</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28454,25 +28454,25 @@
         <v>134.7198007890777</v>
       </c>
       <c r="S15" t="n">
-        <v>178.1482641530678</v>
+        <v>19.3149536504925</v>
       </c>
       <c r="T15" t="n">
-        <v>26.47299028624306</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="U15" t="n">
-        <v>48.73013617764141</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="V15" t="n">
-        <v>88.76087003226235</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="W15" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="X15" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="Y15" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
     </row>
     <row r="16">
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>178.1482641530678</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C16" t="n">
         <v>166.4571809719723</v>
@@ -28509,49 +28509,49 @@
         <v>120.2396075829089</v>
       </c>
       <c r="K16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="L16" t="n">
-        <v>32.15181624817887</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="M16" t="n">
-        <v>25.21686539889343</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="N16" t="n">
-        <v>155.2757536280108</v>
+        <v>16.52015736928133</v>
       </c>
       <c r="O16" t="n">
-        <v>178.1482641530678</v>
+        <v>37.47888399777678</v>
       </c>
       <c r="P16" t="n">
-        <v>178.1482641530678</v>
+        <v>108.2454592067463</v>
       </c>
       <c r="Q16" t="n">
-        <v>127.2169859636892</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="R16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="S16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="T16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="U16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="V16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="W16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="X16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="Y16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
     </row>
     <row r="17">
@@ -28585,13 +28585,13 @@
         <v>297.4476709269844</v>
       </c>
       <c r="J17" t="n">
-        <v>91.11195366134793</v>
+        <v>76.78161896459403</v>
       </c>
       <c r="K17" t="n">
-        <v>6.727192146300943</v>
+        <v>6.727192146300929</v>
       </c>
       <c r="L17" t="n">
-        <v>141.3051631366612</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -28603,10 +28603,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>15.09197235108874</v>
+        <v>15.09197235108871</v>
       </c>
       <c r="Q17" t="n">
-        <v>89.71173703742195</v>
+        <v>245.3472348708371</v>
       </c>
       <c r="R17" t="n">
         <v>297.4476709269844</v>
@@ -28649,13 +28649,13 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>125.7355245857741</v>
@@ -28688,22 +28688,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>134.7198007890777</v>
+        <v>134.7198007890776</v>
       </c>
       <c r="S18" t="n">
         <v>191.5907913200043</v>
       </c>
       <c r="T18" t="n">
-        <v>26.47299028624306</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U18" t="n">
-        <v>48.73013617764141</v>
+        <v>232.9434648832196</v>
       </c>
       <c r="V18" t="n">
-        <v>52.15098759615503</v>
+        <v>52.15098759615501</v>
       </c>
       <c r="W18" t="n">
-        <v>160.0202301674823</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
         <v>217.3129144394706</v>
@@ -28746,22 +28746,22 @@
         <v>120.2396075829089</v>
       </c>
       <c r="K19" t="n">
-        <v>67.02998013918997</v>
+        <v>67.02998013918996</v>
       </c>
       <c r="L19" t="n">
-        <v>32.15181624817887</v>
+        <v>32.15181624817886</v>
       </c>
       <c r="M19" t="n">
         <v>25.21686539889343</v>
       </c>
       <c r="N19" t="n">
-        <v>16.52015736928133</v>
+        <v>16.52015736928132</v>
       </c>
       <c r="O19" t="n">
         <v>37.47888399777678</v>
       </c>
       <c r="P19" t="n">
-        <v>58.47859890024886</v>
+        <v>58.47859890024885</v>
       </c>
       <c r="Q19" t="n">
         <v>127.2169859636892</v>
@@ -28822,13 +28822,13 @@
         <v>297.4476709269844</v>
       </c>
       <c r="J20" t="n">
-        <v>91.11195366134793</v>
+        <v>265.2795522838413</v>
       </c>
       <c r="K20" t="n">
-        <v>6.727192146300943</v>
+        <v>21.16188609480361</v>
       </c>
       <c r="L20" t="n">
-        <v>141.3051631366612</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>297.4476709269844</v>
       </c>
       <c r="U20" t="n">
-        <v>297.4476709269844</v>
+        <v>250.1505414926498</v>
       </c>
       <c r="V20" t="n">
         <v>297.4476709269844</v>
@@ -28877,7 +28877,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -28886,13 +28886,13 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>101.4327582841258</v>
+        <v>106.3556808419918</v>
       </c>
       <c r="H21" t="n">
         <v>125.7355245857741</v>
@@ -29077,10 +29077,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>29.52666629959203</v>
+        <v>15.09197235108874</v>
       </c>
       <c r="Q23" t="n">
-        <v>278.2096703566694</v>
+        <v>245.3472348708372</v>
       </c>
       <c r="R23" t="n">
         <v>297.4476709269844</v>
@@ -29092,7 +29092,7 @@
         <v>297.4476709269844</v>
       </c>
       <c r="U23" t="n">
-        <v>250.1505414926498</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="V23" t="n">
         <v>297.4476709269844</v>
@@ -29114,7 +29114,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -29123,13 +29123,13 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>101.4327582841249</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H24" t="n">
         <v>125.7355245857741</v>
@@ -29177,10 +29177,10 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
-        <v>266.7045835770116</v>
+        <v>253.9901541436954</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>28.81498112022336</v>
       </c>
       <c r="Y24" t="n">
         <v>223.3842861340256</v>
@@ -29302,13 +29302,13 @@
         <v>213.484750524001</v>
       </c>
       <c r="L26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240012</v>
       </c>
       <c r="M26" t="n">
         <v>213.484750524001</v>
       </c>
       <c r="N26" t="n">
-        <v>213.4847505240012</v>
+        <v>213.484750524001</v>
       </c>
       <c r="O26" t="n">
         <v>213.484750524001</v>
@@ -29351,7 +29351,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
         <v>187.5181515243659</v>
@@ -29363,10 +29363,10 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>36.28313363246349</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>148.7446044746268</v>
+        <v>41.04459590950046</v>
       </c>
       <c r="H27" t="n">
         <v>125.7355245857741</v>
@@ -29402,7 +29402,7 @@
         <v>134.7198007890777</v>
       </c>
       <c r="S27" t="n">
-        <v>191.5907913200043</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>213.484750524001</v>
@@ -29442,19 +29442,19 @@
         <v>141.676141212225</v>
       </c>
       <c r="F28" t="n">
-        <v>138.9268822184467</v>
+        <v>213.484750524001</v>
       </c>
       <c r="G28" t="n">
         <v>168.7007749271525</v>
       </c>
       <c r="H28" t="n">
-        <v>165.8243976546666</v>
+        <v>213.484750524001</v>
       </c>
       <c r="I28" t="n">
-        <v>164.852968067965</v>
+        <v>213.484750524001</v>
       </c>
       <c r="J28" t="n">
-        <v>120.2396075829089</v>
+        <v>181.9611340134661</v>
       </c>
       <c r="K28" t="n">
         <v>67.02998013918997</v>
@@ -29466,10 +29466,10 @@
         <v>25.21686539889343</v>
       </c>
       <c r="N28" t="n">
-        <v>63.03103153617214</v>
+        <v>16.52015736928133</v>
       </c>
       <c r="O28" t="n">
-        <v>213.484750524001</v>
+        <v>37.47888399777678</v>
       </c>
       <c r="P28" t="n">
         <v>58.47859890024886</v>
@@ -29478,7 +29478,7 @@
         <v>127.2169859636892</v>
       </c>
       <c r="R28" t="n">
-        <v>213.484750524001</v>
+        <v>203.4299611556341</v>
       </c>
       <c r="S28" t="n">
         <v>213.484750524001</v>
@@ -29588,22 +29588,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>71.84730191106205</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>148.7446044746268</v>
+        <v>38.48604082599623</v>
       </c>
       <c r="H30" t="n">
         <v>125.7355245857741</v>
@@ -29633,10 +29633,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>6.869455874161023</v>
       </c>
       <c r="R30" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>191.5907913200043</v>
@@ -29645,7 +29645,7 @@
         <v>213.484750524001</v>
       </c>
       <c r="U30" t="n">
-        <v>213.484750524001</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>213.484750524001</v>
@@ -29667,34 +29667,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>177.6169206649681</v>
+        <v>213.484750524001</v>
       </c>
       <c r="C31" t="n">
-        <v>166.4571809719723</v>
+        <v>213.484750524001</v>
       </c>
       <c r="D31" t="n">
         <v>145.1826502507107</v>
       </c>
       <c r="E31" t="n">
-        <v>141.676141212225</v>
+        <v>172.0104279602425</v>
       </c>
       <c r="F31" t="n">
-        <v>138.9268822184467</v>
+        <v>213.484750524001</v>
       </c>
       <c r="G31" t="n">
-        <v>168.7007749271525</v>
+        <v>213.484750524001</v>
       </c>
       <c r="H31" t="n">
-        <v>193.2545855069347</v>
+        <v>165.8243976546666</v>
       </c>
       <c r="I31" t="n">
-        <v>213.484750524001</v>
+        <v>164.852968067965</v>
       </c>
       <c r="J31" t="n">
         <v>120.2396075829089</v>
       </c>
       <c r="K31" t="n">
-        <v>213.484750524001</v>
+        <v>67.02998013918997</v>
       </c>
       <c r="L31" t="n">
         <v>32.15181624817887</v>
@@ -29715,7 +29715,7 @@
         <v>127.2169859636892</v>
       </c>
       <c r="R31" t="n">
-        <v>213.484750524001</v>
+        <v>203.4299611556341</v>
       </c>
       <c r="S31" t="n">
         <v>213.484750524001</v>
@@ -29776,7 +29776,7 @@
         <v>214.3124603908652</v>
       </c>
       <c r="L32" t="n">
-        <v>214.3124603908652</v>
+        <v>194.1953356407519</v>
       </c>
       <c r="M32" t="n">
         <v>214.3124603908652</v>
@@ -29788,7 +29788,7 @@
         <v>214.3124603908652</v>
       </c>
       <c r="P32" t="n">
-        <v>194.1953356407514</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="Q32" t="n">
         <v>214.3124603908652</v>
@@ -29825,19 +29825,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>42.08453155797835</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>66.88104270987645</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
         <v>148.7446044746268</v>
@@ -29870,7 +29870,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.869455874161023</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>134.7198007890777</v>
@@ -29904,10 +29904,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>177.6169206649681</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="C34" t="n">
-        <v>193.1390066970285</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="D34" t="n">
         <v>145.1826502507107</v>
@@ -29937,7 +29937,7 @@
         <v>32.15181624817887</v>
       </c>
       <c r="M34" t="n">
-        <v>214.3124603908652</v>
+        <v>167.3259662063621</v>
       </c>
       <c r="N34" t="n">
         <v>16.52015736928133</v>
@@ -29952,7 +29952,7 @@
         <v>127.2169859636892</v>
       </c>
       <c r="R34" t="n">
-        <v>214.3124603908652</v>
+        <v>203.4299611556341</v>
       </c>
       <c r="S34" t="n">
         <v>214.3124603908652</v>
@@ -30010,7 +30010,7 @@
         <v>272.0591682562687</v>
       </c>
       <c r="K35" t="n">
-        <v>196.6241360743525</v>
+        <v>267.1880015163298</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -30028,7 +30028,7 @@
         <v>15.09197235108874</v>
       </c>
       <c r="Q35" t="n">
-        <v>272.0591682562687</v>
+        <v>201.4953028142921</v>
       </c>
       <c r="R35" t="n">
         <v>272.0591682562687</v>
@@ -30062,13 +30062,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
         <v>171.8275718397997</v>
@@ -30107,7 +30107,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>4.062821181004989</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>134.7198007890777</v>
@@ -30119,19 +30119,19 @@
         <v>214.9709236054903</v>
       </c>
       <c r="U36" t="n">
-        <v>237.2280694968886</v>
+        <v>212.8882882701594</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>266.7045835770116</v>
+        <v>6.243774206982721</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="37">
@@ -30144,7 +30144,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C37" t="n">
-        <v>166.4571809719723</v>
+        <v>202.0136829058195</v>
       </c>
       <c r="D37" t="n">
         <v>145.1826502507107</v>
@@ -30183,7 +30183,7 @@
         <v>37.47888399777678</v>
       </c>
       <c r="P37" t="n">
-        <v>67.0849477622771</v>
+        <v>58.47859890024886</v>
       </c>
       <c r="Q37" t="n">
         <v>127.2169859636892</v>
@@ -30201,7 +30201,7 @@
         <v>272.0591682562687</v>
       </c>
       <c r="V37" t="n">
-        <v>272.0591682562687</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W37" t="n">
         <v>272.0591682562687</v>
@@ -30247,7 +30247,7 @@
         <v>272.0591682562687</v>
       </c>
       <c r="K38" t="n">
-        <v>196.6241360743525</v>
+        <v>196.6241360743534</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -30323,7 +30323,7 @@
         <v>107.3634103439873</v>
       </c>
       <c r="J39" t="n">
-        <v>4.90264928403311</v>
+        <v>52.47517038390259</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30362,10 +30362,10 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>266.7045835770116</v>
+        <v>6.243774206982721</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>212.8882882701594</v>
       </c>
       <c r="Y39" t="n">
         <v>223.3842861340256</v>
@@ -30399,7 +30399,7 @@
         <v>165.8243976546666</v>
       </c>
       <c r="I40" t="n">
-        <v>200.4094700018121</v>
+        <v>164.852968067965</v>
       </c>
       <c r="J40" t="n">
         <v>120.2396075829089</v>
@@ -30429,7 +30429,7 @@
         <v>203.4299611556341</v>
       </c>
       <c r="S40" t="n">
-        <v>235.4380443661805</v>
+        <v>270.9945463000277</v>
       </c>
       <c r="T40" t="n">
         <v>223.761558450323</v>
@@ -30490,16 +30490,16 @@
         <v>241.009769215476</v>
       </c>
       <c r="M41" t="n">
+        <v>39.6043201289764</v>
+      </c>
+      <c r="N41" t="n">
         <v>241.009769215476</v>
       </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>68.18906713709346</v>
+        <v>15.09197235108874</v>
       </c>
       <c r="Q41" t="n">
         <v>241.009769215476</v>
@@ -30508,7 +30508,7 @@
         <v>241.009769215476</v>
       </c>
       <c r="S41" t="n">
-        <v>227.5169945584482</v>
+        <v>241.009769215476</v>
       </c>
       <c r="T41" t="n">
         <v>241.009769215476</v>
@@ -30536,7 +30536,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>141.3898525965425</v>
       </c>
       <c r="C42" t="n">
         <v>187.5181515243659</v>
@@ -30593,10 +30593,10 @@
         <v>214.9709236054903</v>
       </c>
       <c r="U42" t="n">
-        <v>219.1320624771421</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -30605,7 +30605,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -30615,7 +30615,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>177.6169206649681</v>
+        <v>241.009769215476</v>
       </c>
       <c r="C43" t="n">
         <v>166.4571809719723</v>
@@ -30648,7 +30648,7 @@
         <v>32.15181624817887</v>
       </c>
       <c r="M43" t="n">
-        <v>128.3154998197921</v>
+        <v>25.21686539889343</v>
       </c>
       <c r="N43" t="n">
         <v>16.52015736928133</v>
@@ -30681,10 +30681,10 @@
         <v>241.009769215476</v>
       </c>
       <c r="X43" t="n">
-        <v>221.9194554082425</v>
+        <v>237.7567448773256</v>
       </c>
       <c r="Y43" t="n">
-        <v>217.1412728141684</v>
+        <v>241.009769215476</v>
       </c>
     </row>
     <row r="44">
@@ -30724,16 +30724,16 @@
         <v>241.009769215476</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>241.009769215476</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>54.69629248006514</v>
       </c>
       <c r="N44" t="n">
-        <v>54.69629248006592</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>241.009769215476</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>241.009769215476</v>
@@ -30773,16 +30773,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>29.47206473704549</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
         <v>158.8234391199283</v>
@@ -30818,7 +30818,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.869455874161023</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>134.7198007890777</v>
@@ -30830,19 +30830,19 @@
         <v>214.9709236054903</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2280694968886</v>
+        <v>201.8674276957654</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>241.009769215476</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -30852,7 +30852,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>177.6169206649681</v>
+        <v>220.5085341121725</v>
       </c>
       <c r="C46" t="n">
         <v>166.4571809719723</v>
@@ -30870,7 +30870,7 @@
         <v>168.7007749271525</v>
       </c>
       <c r="H46" t="n">
-        <v>241.009769215476</v>
+        <v>165.8243976546666</v>
       </c>
       <c r="I46" t="n">
         <v>164.852968067965</v>
@@ -30900,13 +30900,13 @@
         <v>127.2169859636892</v>
       </c>
       <c r="R46" t="n">
-        <v>225.7714991664279</v>
+        <v>203.4299611556341</v>
       </c>
       <c r="S46" t="n">
+        <v>235.4380443661805</v>
+      </c>
+      <c r="T46" t="n">
         <v>241.009769215476</v>
-      </c>
-      <c r="T46" t="n">
-        <v>223.761558450323</v>
       </c>
       <c r="U46" t="n">
         <v>241.009769215476</v>
@@ -30918,10 +30918,10 @@
         <v>241.009769215476</v>
       </c>
       <c r="X46" t="n">
-        <v>221.9194554082425</v>
+        <v>241.009769215476</v>
       </c>
       <c r="Y46" t="n">
-        <v>217.1412728141684</v>
+        <v>241.009769215476</v>
       </c>
     </row>
   </sheetData>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4067191319631736</v>
+        <v>0.4067191319631737</v>
       </c>
       <c r="H17" t="n">
-        <v>4.165312310217852</v>
+        <v>4.165312310217854</v>
       </c>
       <c r="I17" t="n">
         <v>15.68003933501027</v>
       </c>
       <c r="J17" t="n">
-        <v>34.51977792645944</v>
+        <v>34.51977792645945</v>
       </c>
       <c r="K17" t="n">
-        <v>51.73619878246058</v>
+        <v>51.7361987824606</v>
       </c>
       <c r="L17" t="n">
-        <v>64.18332941727857</v>
+        <v>64.18332941727859</v>
       </c>
       <c r="M17" t="n">
-        <v>71.41632078032866</v>
+        <v>71.41632078032868</v>
       </c>
       <c r="N17" t="n">
-        <v>72.57191151401904</v>
+        <v>72.57191151401905</v>
       </c>
       <c r="O17" t="n">
-        <v>68.52759814556022</v>
+        <v>68.52759814556023</v>
       </c>
       <c r="P17" t="n">
-        <v>58.48671957521936</v>
+        <v>58.48671957521938</v>
       </c>
       <c r="Q17" t="n">
-        <v>43.92109066178819</v>
+        <v>43.92109066178821</v>
       </c>
       <c r="R17" t="n">
         <v>25.54857067318173</v>
       </c>
       <c r="S17" t="n">
-        <v>9.268112219610828</v>
+        <v>9.268112219610831</v>
       </c>
       <c r="T17" t="n">
-        <v>1.780413000168793</v>
+        <v>1.780413000168794</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03253753055705388</v>
+        <v>0.03253753055705389</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,40 +32309,40 @@
         <v>2.101692337122629</v>
       </c>
       <c r="I18" t="n">
-        <v>7.492409103729625</v>
+        <v>7.492409103729628</v>
       </c>
       <c r="J18" t="n">
-        <v>20.55974324884584</v>
+        <v>20.55974324884585</v>
       </c>
       <c r="K18" t="n">
         <v>35.13987592000174</v>
       </c>
       <c r="L18" t="n">
-        <v>47.24989970447581</v>
+        <v>47.24989970447582</v>
       </c>
       <c r="M18" t="n">
-        <v>55.13840432133253</v>
+        <v>55.13840432133254</v>
       </c>
       <c r="N18" t="n">
-        <v>56.59775381427554</v>
+        <v>56.59775381427556</v>
       </c>
       <c r="O18" t="n">
-        <v>51.77588747134025</v>
+        <v>51.77588747134026</v>
       </c>
       <c r="P18" t="n">
-        <v>41.55471433862171</v>
+        <v>41.55471433862172</v>
       </c>
       <c r="Q18" t="n">
-        <v>27.77822605795503</v>
+        <v>27.77822605795504</v>
       </c>
       <c r="R18" t="n">
         <v>13.5111520092225</v>
       </c>
       <c r="S18" t="n">
-        <v>4.042083127935661</v>
+        <v>4.042083127935662</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8771368109971366</v>
+        <v>0.8771368109971368</v>
       </c>
       <c r="U18" t="n">
         <v>0.01431670529375088</v>
@@ -32388,7 +32388,7 @@
         <v>1.622059239773297</v>
       </c>
       <c r="I19" t="n">
-        <v>5.48647440201438</v>
+        <v>5.486474402014381</v>
       </c>
       <c r="J19" t="n">
         <v>12.89852219602957</v>
@@ -32397,34 +32397,34 @@
         <v>21.19623423752834</v>
       </c>
       <c r="L19" t="n">
-        <v>27.12388221600458</v>
+        <v>27.12388221600459</v>
       </c>
       <c r="M19" t="n">
-        <v>28.59833074786394</v>
+        <v>28.59833074786395</v>
       </c>
       <c r="N19" t="n">
-        <v>27.91832636309192</v>
+        <v>27.91832636309194</v>
       </c>
       <c r="O19" t="n">
-        <v>25.78709310837956</v>
+        <v>25.78709310837957</v>
       </c>
       <c r="P19" t="n">
-        <v>22.06531301221259</v>
+        <v>22.0653130122126</v>
       </c>
       <c r="Q19" t="n">
         <v>15.27687899545177</v>
       </c>
       <c r="R19" t="n">
-        <v>8.203174846542657</v>
+        <v>8.203174846542659</v>
       </c>
       <c r="S19" t="n">
-        <v>3.17943513562925</v>
+        <v>3.179435135629251</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7795172215679435</v>
+        <v>0.7795172215679437</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009951283679590783</v>
+        <v>0.009951283679590785</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -35176,7 +35176,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1299154531910392</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>3.199249640013477</v>
@@ -35206,7 +35206,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>0.129915453191039</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>3.199249640013477</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>3.199249640013477</v>
       </c>
       <c r="M9" t="n">
+        <v>3.069987028295762</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>3.199249640013477</v>
       </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
       <c r="P9" t="n">
-        <v>3.069987028295762</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35413,22 +35413,22 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
+        <v>47.192770182586</v>
+      </c>
+      <c r="M11" t="n">
+        <v>81.73670661000438</v>
+      </c>
+      <c r="N11" t="n">
+        <v>76.08878094514384</v>
+      </c>
+      <c r="O11" t="n">
         <v>188.4979333192472</v>
       </c>
-      <c r="M11" t="n">
-        <v>188.4979333192472</v>
-      </c>
-      <c r="N11" t="n">
-        <v>145.0103185511045</v>
-      </c>
-      <c r="O11" t="n">
-        <v>34.56629766936139</v>
-      </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>163.056291801979</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.43652711564582</v>
+        <v>88.43652711564579</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35541,10 +35541,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5313434880996795</v>
+        <v>0.531343488099651</v>
       </c>
       <c r="C13" t="n">
-        <v>11.69108318109542</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -35568,25 +35568,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>111.1182840138778</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>152.9313987541743</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>34.3201201479589</v>
+        <v>161.6281067837864</v>
       </c>
       <c r="O13" t="n">
         <v>140.669380155291</v>
       </c>
       <c r="P13" t="n">
-        <v>119.6696652528189</v>
+        <v>96.79715472776225</v>
       </c>
       <c r="Q13" t="n">
-        <v>50.93127818937856</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,25 +35647,25 @@
         <v>101.3666451884737</v>
       </c>
       <c r="K14" t="n">
-        <v>63.33163260469309</v>
+        <v>171.4210720067668</v>
       </c>
       <c r="L14" t="n">
+        <v>47.192770182586</v>
+      </c>
+      <c r="M14" t="n">
         <v>188.4979333192472</v>
-      </c>
-      <c r="M14" t="n">
-        <v>81.67868594641142</v>
       </c>
       <c r="N14" t="n">
         <v>188.4979333192472</v>
       </c>
       <c r="O14" t="n">
-        <v>34.56629766936139</v>
+        <v>49.39930114675901</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.43652711564582</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35778,7 +35778,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.5313434880996795</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -35808,22 +35808,22 @@
         <v>111.1182840138778</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>145.9964479048889</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>152.9313987541743</v>
       </c>
       <c r="N16" t="n">
-        <v>138.7555962587295</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>140.669380155291</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>119.6696652528189</v>
+        <v>49.76686030649748</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>50.93127818937853</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>56.43790171150837</v>
+        <v>56.43790171150838</v>
       </c>
       <c r="J17" t="n">
-        <v>14.33033469675389</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>188.4979333192472</v>
+        <v>47.19277018258602</v>
       </c>
       <c r="M17" t="n">
-        <v>81.67868594641142</v>
+        <v>81.67868594641143</v>
       </c>
       <c r="N17" t="n">
-        <v>76.08878094514384</v>
+        <v>76.08878094514385</v>
       </c>
       <c r="O17" t="n">
-        <v>34.56629766936139</v>
+        <v>34.5662976693614</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>155.6354978334152</v>
       </c>
       <c r="R17" t="n">
         <v>102.5661255446176</v>
@@ -35914,7 +35914,7 @@
         <v>74.98178952716516</v>
       </c>
       <c r="U17" t="n">
-        <v>47.29712943433466</v>
+        <v>47.29712943433467</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -35963,10 +35963,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>38.34679395543474</v>
+        <v>38.34679395543475</v>
       </c>
       <c r="L18" t="n">
-        <v>118.5181001296708</v>
+        <v>118.5181001296709</v>
       </c>
       <c r="M18" t="n">
         <v>183.5117642464701</v>
@@ -35978,7 +35978,7 @@
         <v>133.0312521404388</v>
       </c>
       <c r="P18" t="n">
-        <v>84.4698113718181</v>
+        <v>84.46981137181811</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36118,13 +36118,13 @@
         <v>56.43790171150837</v>
       </c>
       <c r="J20" t="n">
-        <v>14.33033469675389</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>14.43469394850266</v>
       </c>
       <c r="L20" t="n">
-        <v>188.4979333192472</v>
+        <v>47.192770182586</v>
       </c>
       <c r="M20" t="n">
         <v>81.67868594641142</v>
@@ -36151,7 +36151,7 @@
         <v>74.98178952716516</v>
       </c>
       <c r="U20" t="n">
-        <v>47.29712943433466</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>38.34679395543475</v>
+        <v>38.34679395543486</v>
       </c>
       <c r="L21" t="n">
         <v>118.5181001296708</v>
@@ -36373,10 +36373,10 @@
         <v>34.56629766936139</v>
       </c>
       <c r="P23" t="n">
-        <v>14.43469394850329</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>188.4979333192474</v>
+        <v>155.6354978334152</v>
       </c>
       <c r="R23" t="n">
         <v>102.5661255446176</v>
@@ -36388,7 +36388,7 @@
         <v>74.98178952716516</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>47.29712943433466</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>38.34679395543548</v>
+        <v>38.34679395543474</v>
       </c>
       <c r="L24" t="n">
         <v>118.5181001296708</v>
@@ -36446,13 +36446,13 @@
         <v>183.5117642464701</v>
       </c>
       <c r="N24" t="n">
-        <v>188.4979333192474</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="O24" t="n">
         <v>133.0312521404388</v>
       </c>
       <c r="P24" t="n">
-        <v>84.4698113718181</v>
+        <v>84.46981137181817</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36598,13 +36598,13 @@
         <v>206.7575583777</v>
       </c>
       <c r="L26" t="n">
-        <v>260.677520706587</v>
+        <v>260.6775207065872</v>
       </c>
       <c r="M26" t="n">
         <v>295.1634364704124</v>
       </c>
       <c r="N26" t="n">
-        <v>289.573531469145</v>
+        <v>289.5735314691448</v>
       </c>
       <c r="O26" t="n">
         <v>248.0510481933624</v>
@@ -36738,19 +36738,19 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>74.55786830555434</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>47.66035286933441</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>48.63178245603595</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>61.72152643055719</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -36762,10 +36762,10 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>46.5108741668908</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>176.0058665262242</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -36774,7 +36774,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>10.05478936836687</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36963,34 +36963,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>35.8678298590329</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>47.02756955202864</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>30.33428674801754</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>74.55786830555434</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>44.78397559684852</v>
       </c>
       <c r="H31" t="n">
-        <v>27.43018785226809</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>48.63178245603595</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>146.454770384811</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -37011,7 +37011,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>10.05478936836687</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>137.5308414262712</v>
       </c>
       <c r="K32" t="n">
-        <v>207.5852682445642</v>
+        <v>207.5852682445643</v>
       </c>
       <c r="L32" t="n">
-        <v>261.5052305734512</v>
+        <v>241.3881058233379</v>
       </c>
       <c r="M32" t="n">
         <v>295.9911463372766</v>
       </c>
       <c r="N32" t="n">
-        <v>290.401241336009</v>
+        <v>290.4012413360091</v>
       </c>
       <c r="O32" t="n">
         <v>248.8787580602266</v>
       </c>
       <c r="P32" t="n">
-        <v>179.1033632896626</v>
+        <v>199.2204880397765</v>
       </c>
       <c r="Q32" t="n">
-        <v>124.6007233534432</v>
+        <v>124.6007233534433</v>
       </c>
       <c r="R32" t="n">
-        <v>19.43091500849837</v>
+        <v>19.4309150084984</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37200,10 +37200,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>36.69553972589713</v>
       </c>
       <c r="C34" t="n">
-        <v>26.68182572505611</v>
+        <v>47.85527941889288</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -37233,7 +37233,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>189.0955949919718</v>
+        <v>142.1091008074687</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -37248,7 +37248,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>10.88249923523109</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37300,13 +37300,13 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>31.04939904079268</v>
+        <v>31.04939904079262</v>
       </c>
       <c r="J35" t="n">
-        <v>195.2775492916747</v>
+        <v>195.2775492916746</v>
       </c>
       <c r="K35" t="n">
-        <v>189.8969439280516</v>
+        <v>260.4608093700289</v>
       </c>
       <c r="L35" t="n">
         <v>47.192770182586</v>
@@ -37324,19 +37324,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>182.3474312188468</v>
+        <v>111.7835657768702</v>
       </c>
       <c r="R35" t="n">
-        <v>77.1776228739019</v>
+        <v>77.17762287390184</v>
       </c>
       <c r="S35" t="n">
-        <v>44.54217369782054</v>
+        <v>44.54217369782049</v>
       </c>
       <c r="T35" t="n">
-        <v>49.59328685644947</v>
+        <v>49.59328685644941</v>
       </c>
       <c r="U35" t="n">
-        <v>21.90862676361897</v>
+        <v>21.90862676361892</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -37440,7 +37440,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>35.55650193384716</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -37479,7 +37479,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>8.606348862028231</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37497,7 +37497,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>26.95015307181882</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -37537,13 +37537,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>31.04939904079268</v>
+        <v>31.04939904079262</v>
       </c>
       <c r="J38" t="n">
-        <v>195.2775492916747</v>
+        <v>195.2775492916746</v>
       </c>
       <c r="K38" t="n">
-        <v>189.8969439280516</v>
+        <v>189.8969439280524</v>
       </c>
       <c r="L38" t="n">
         <v>47.192770182586</v>
@@ -37561,19 +37561,19 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>182.3474312188468</v>
+        <v>182.3474312188467</v>
       </c>
       <c r="R38" t="n">
-        <v>77.1776228739019</v>
+        <v>77.17762287390184</v>
       </c>
       <c r="S38" t="n">
-        <v>44.54217369782054</v>
+        <v>44.54217369782049</v>
       </c>
       <c r="T38" t="n">
-        <v>49.59328685644947</v>
+        <v>49.59328685644941</v>
       </c>
       <c r="U38" t="n">
-        <v>21.90862676361897</v>
+        <v>21.90862676361892</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -37695,7 +37695,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>35.55650193384704</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -37725,7 +37725,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>35.55650193384716</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -37783,31 +37783,31 @@
         <v>234.2825770691751</v>
       </c>
       <c r="L41" t="n">
-        <v>288.202539398062</v>
+        <v>288.2025393980621</v>
       </c>
       <c r="M41" t="n">
-        <v>322.6884551618874</v>
+        <v>121.2830060753878</v>
       </c>
       <c r="N41" t="n">
-        <v>76.08878094514384</v>
+        <v>317.0985501606199</v>
       </c>
       <c r="O41" t="n">
         <v>34.56629766936139</v>
       </c>
       <c r="P41" t="n">
-        <v>53.09709478600472</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>151.2980321780541</v>
       </c>
       <c r="R41" t="n">
-        <v>46.12822383310919</v>
+        <v>46.12822383310922</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>13.49277465702787</v>
       </c>
       <c r="T41" t="n">
-        <v>18.54388781565676</v>
+        <v>18.54388781565679</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37911,7 +37911,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>63.39284855050795</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -37944,7 +37944,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>103.0986344208987</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -37977,10 +37977,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>15.83728946908303</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>23.86849640130762</v>
       </c>
     </row>
     <row r="44">
@@ -38020,16 +38020,16 @@
         <v>234.2825770691751</v>
       </c>
       <c r="L44" t="n">
-        <v>47.192770182586</v>
+        <v>288.2025393980621</v>
       </c>
       <c r="M44" t="n">
-        <v>81.67868594641142</v>
+        <v>136.3749784264766</v>
       </c>
       <c r="N44" t="n">
-        <v>130.7850734252098</v>
+        <v>76.08878094514384</v>
       </c>
       <c r="O44" t="n">
-        <v>275.5760668848374</v>
+        <v>34.56629766936139</v>
       </c>
       <c r="P44" t="n">
         <v>225.9177968643873</v>
@@ -38038,13 +38038,13 @@
         <v>151.2980321780541</v>
       </c>
       <c r="R44" t="n">
-        <v>46.12822383310919</v>
+        <v>46.12822383310922</v>
       </c>
       <c r="S44" t="n">
-        <v>13.49277465702784</v>
+        <v>13.49277465702787</v>
       </c>
       <c r="T44" t="n">
-        <v>18.54388781565676</v>
+        <v>18.54388781565679</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38148,7 +38148,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>42.89161344720443</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -38166,7 +38166,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>75.18537156080943</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -38196,13 +38196,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>22.3415380107938</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>5.571724849295451</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>17.24821076515303</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -38214,10 +38214,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>19.09031380723351</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>23.86849640130762</v>
       </c>
     </row>
   </sheetData>
